--- a/BOARD GAME GENERATOR-CT-01.05.xlsx
+++ b/BOARD GAME GENERATOR-CT-01.05.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" codeName="EstaPasta_de_trabalho" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="18915" windowHeight="6495" tabRatio="528" activeTab="4"/>
+    <workbookView xWindow="-105" yWindow="2475" windowWidth="18915" windowHeight="6105" tabRatio="528" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="5" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Modulo Gerenciar" sheetId="14" r:id="rId3"/>
     <sheet name="Modulo Iniciar Jogo" sheetId="13" r:id="rId4"/>
     <sheet name="Modulo Jogar" sheetId="15" r:id="rId5"/>
+    <sheet name="Plan1" sheetId="16" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="178">
   <si>
     <t>CAMPO</t>
   </si>
@@ -201,9 +202,6 @@
     <t>Preencha os campos de acordo com os dados de entrada e confirme</t>
   </si>
   <si>
-    <t>O sistema cadastra um novo jogo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Selecione a opção para cadastrar um jogo </t>
   </si>
   <si>
@@ -271,9 +269,6 @@
   </si>
   <si>
     <t>Jogo selecionado com sucesso</t>
-  </si>
-  <si>
-    <t>O sistema altera o jogo</t>
   </si>
   <si>
     <t>Jogo não encontrado</t>
@@ -462,9 +457,6 @@
     <t>Dados preenchidos com  sucesso</t>
   </si>
   <si>
-    <t>O sistema cadastra um novo jogo com a imagem escolhida</t>
-  </si>
-  <si>
     <t>Plano de fundo: imagem com formato .jpeg</t>
   </si>
   <si>
@@ -610,9 +602,6 @@
     <t>Plano de fundo: não escolher</t>
   </si>
   <si>
-    <t xml:space="preserve">O sistema cadastra um novo jogo com o plano de fundo default </t>
-  </si>
-  <si>
     <t>Exibir plano de fundo com formato default</t>
   </si>
   <si>
@@ -632,6 +621,24 @@
   </si>
   <si>
     <t>&lt;versão 01.05&gt;</t>
+  </si>
+  <si>
+    <t>O sistema cadastra um novo jogo com o local das casas especiais escolhida aleatóriamente</t>
+  </si>
+  <si>
+    <t>O sistema cadastra o jogo com a imagem escolhida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sistema cadastra o jogo com o plano de fundo default </t>
+  </si>
+  <si>
+    <t>O sistema cadastra  o jogo com a imagem escolhida</t>
+  </si>
+  <si>
+    <t>O sistema cadastra o jogo com sucesso</t>
+  </si>
+  <si>
+    <t>O sistema altera o jogo com sucesso</t>
   </si>
 </sst>
 </file>
@@ -1156,7 +1163,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1386,17 +1393,35 @@
     <xf numFmtId="49" fontId="0" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1409,39 +1434,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1482,29 +1474,35 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1532,6 +1530,18 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="27" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1954,7 +1964,7 @@
   <dimension ref="B3:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="E16" sqref="E16:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2073,11 +2083,11 @@
       <c r="B13" s="12"/>
       <c r="C13" s="13"/>
       <c r="D13" s="22"/>
-      <c r="E13" s="97" t="s">
+      <c r="E13" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
       <c r="H13" s="23"/>
       <c r="I13" s="13"/>
       <c r="J13" s="17"/>
@@ -2086,9 +2096,9 @@
       <c r="B14" s="12"/>
       <c r="C14" s="13"/>
       <c r="D14" s="22"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
       <c r="H14" s="23"/>
       <c r="I14" s="13"/>
       <c r="J14" s="17"/>
@@ -2108,11 +2118,11 @@
       <c r="B16" s="12"/>
       <c r="C16" s="13"/>
       <c r="D16" s="22"/>
-      <c r="E16" s="98" t="s">
+      <c r="E16" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
       <c r="H16" s="23"/>
       <c r="I16" s="13"/>
       <c r="J16" s="17"/>
@@ -2121,9 +2131,9 @@
       <c r="B17" s="12"/>
       <c r="C17" s="13"/>
       <c r="D17" s="22"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
       <c r="H17" s="23"/>
       <c r="I17" s="13"/>
       <c r="J17" s="17"/>
@@ -2134,7 +2144,7 @@
       <c r="D18" s="22"/>
       <c r="E18" s="27"/>
       <c r="F18" s="28" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G18" s="27"/>
       <c r="H18" s="23"/>
@@ -2363,9 +2373,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:GP67"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C63" sqref="C63:C64"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2383,51 +2393,51 @@
       <c r="A1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="123" t="s">
+      <c r="C1" s="115"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="126" t="s">
+      <c r="F1" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="116" t="s">
+      <c r="G1" s="111" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" thickBot="1">
       <c r="A2" s="74"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="117"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="112"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="109" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="117"/>
+      <c r="B3" s="126" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="127"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="112"/>
     </row>
     <row r="4" spans="1:7" ht="13.5" thickBot="1">
-      <c r="A4" s="108"/>
-      <c r="B4" s="112"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="118"/>
+      <c r="A4" s="125"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="113"/>
     </row>
     <row r="5" spans="1:7" ht="13.5" thickBot="1">
       <c r="A5" s="56"/>
@@ -2471,17 +2481,17 @@
       <c r="G7" s="66"/>
     </row>
     <row r="8" spans="1:7" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A8" s="99">
+      <c r="A8" s="106">
         <v>1</v>
       </c>
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="100" t="s">
+      <c r="C8" s="104" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" s="43" t="s">
         <v>28</v>
@@ -2494,17 +2504,17 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="88.5" customHeight="1" thickBot="1">
-      <c r="A9" s="99"/>
-      <c r="B9" s="100"/>
-      <c r="C9" s="100"/>
+      <c r="A9" s="106"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="104"/>
       <c r="D9" s="67" t="s">
         <v>53</v>
       </c>
       <c r="E9" s="67" t="s">
-        <v>54</v>
+        <v>176</v>
       </c>
       <c r="F9" s="87" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G9" s="83" t="s">
         <v>14</v>
@@ -2520,17 +2530,17 @@
       <c r="G10" s="66"/>
     </row>
     <row r="11" spans="1:7" s="36" customFormat="1" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A11" s="99">
+      <c r="A11" s="106">
         <v>2</v>
       </c>
-      <c r="B11" s="100" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="100" t="s">
+      <c r="B11" s="104" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="104" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" s="43" t="s">
         <v>28</v>
@@ -2543,17 +2553,17 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="36" customFormat="1" ht="85.5" customHeight="1" thickBot="1">
-      <c r="A12" s="99"/>
-      <c r="B12" s="100"/>
-      <c r="C12" s="100"/>
+      <c r="A12" s="106"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
       <c r="D12" s="67" t="s">
         <v>53</v>
       </c>
       <c r="E12" s="67" t="s">
-        <v>54</v>
+        <v>176</v>
       </c>
       <c r="F12" s="87" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G12" s="83" t="s">
         <v>14</v>
@@ -2569,17 +2579,17 @@
       <c r="G13" s="66"/>
     </row>
     <row r="14" spans="1:7" s="36" customFormat="1" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A14" s="99">
+      <c r="A14" s="106">
         <v>3</v>
       </c>
-      <c r="B14" s="100" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="100" t="s">
+      <c r="B14" s="104" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="104" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" s="43" t="s">
         <v>28</v>
@@ -2592,17 +2602,17 @@
       </c>
     </row>
     <row r="15" spans="1:7" s="36" customFormat="1" ht="77.25" thickBot="1">
-      <c r="A15" s="99"/>
-      <c r="B15" s="100"/>
-      <c r="C15" s="100"/>
+      <c r="A15" s="106"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="104"/>
       <c r="D15" s="67" t="s">
         <v>53</v>
       </c>
       <c r="E15" s="67" t="s">
-        <v>54</v>
+        <v>176</v>
       </c>
       <c r="F15" s="87" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G15" s="83" t="s">
         <v>14</v>
@@ -2618,17 +2628,17 @@
       <c r="G16" s="66"/>
     </row>
     <row r="17" spans="1:7" s="36" customFormat="1" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A17" s="99">
+      <c r="A17" s="106">
         <v>4</v>
       </c>
-      <c r="B17" s="100" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="100" t="s">
+      <c r="B17" s="104" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="104" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17" s="43" t="s">
         <v>28</v>
@@ -2641,17 +2651,17 @@
       </c>
     </row>
     <row r="18" spans="1:7" s="36" customFormat="1" ht="77.25" thickBot="1">
-      <c r="A18" s="99"/>
-      <c r="B18" s="100"/>
-      <c r="C18" s="100"/>
+      <c r="A18" s="106"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="104"/>
       <c r="D18" s="67" t="s">
         <v>53</v>
       </c>
       <c r="E18" s="67" t="s">
-        <v>54</v>
+        <v>176</v>
       </c>
       <c r="F18" s="87" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G18" s="83" t="s">
         <v>14</v>
@@ -2667,17 +2677,17 @@
       <c r="G19" s="66"/>
     </row>
     <row r="20" spans="1:7" s="36" customFormat="1" ht="52.5" customHeight="1" thickBot="1">
-      <c r="A20" s="99">
+      <c r="A20" s="106">
         <v>5</v>
       </c>
-      <c r="B20" s="100" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="100" t="s">
+      <c r="B20" s="104" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="104" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20" s="43" t="s">
         <v>28</v>
@@ -2690,17 +2700,17 @@
       </c>
     </row>
     <row r="21" spans="1:7" s="36" customFormat="1" ht="77.25" thickBot="1">
-      <c r="A21" s="99"/>
-      <c r="B21" s="100"/>
-      <c r="C21" s="100"/>
+      <c r="A21" s="106"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="104"/>
       <c r="D21" s="67" t="s">
         <v>53</v>
       </c>
       <c r="E21" s="67" t="s">
-        <v>54</v>
+        <v>176</v>
       </c>
       <c r="F21" s="87" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G21" s="83" t="s">
         <v>14</v>
@@ -2716,17 +2726,17 @@
       <c r="G22" s="66"/>
     </row>
     <row r="23" spans="1:7" s="36" customFormat="1" ht="52.5" customHeight="1" thickBot="1">
-      <c r="A23" s="99">
+      <c r="A23" s="106">
         <v>6</v>
       </c>
-      <c r="B23" s="100" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="100" t="s">
+      <c r="B23" s="104" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="104" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E23" s="43" t="s">
         <v>28</v>
@@ -2739,17 +2749,17 @@
       </c>
     </row>
     <row r="24" spans="1:7" s="36" customFormat="1" ht="77.25" thickBot="1">
-      <c r="A24" s="99"/>
-      <c r="B24" s="100"/>
-      <c r="C24" s="100"/>
+      <c r="A24" s="106"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="104"/>
       <c r="D24" s="67" t="s">
         <v>53</v>
       </c>
       <c r="E24" s="67" t="s">
-        <v>54</v>
+        <v>176</v>
       </c>
       <c r="F24" s="87" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G24" s="83" t="s">
         <v>14</v>
@@ -2765,17 +2775,17 @@
       <c r="G25" s="66"/>
     </row>
     <row r="26" spans="1:7" s="36" customFormat="1" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A26" s="99">
+      <c r="A26" s="106">
         <v>7</v>
       </c>
-      <c r="B26" s="100" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="100" t="s">
+      <c r="B26" s="104" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="104" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26" s="43" t="s">
         <v>28</v>
@@ -2788,17 +2798,17 @@
       </c>
     </row>
     <row r="27" spans="1:7" s="36" customFormat="1" ht="64.5" thickBot="1">
-      <c r="A27" s="99"/>
-      <c r="B27" s="100"/>
-      <c r="C27" s="100"/>
+      <c r="A27" s="106"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="104"/>
       <c r="D27" s="67" t="s">
         <v>53</v>
       </c>
       <c r="E27" s="67" t="s">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="F27" s="87" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G27" s="83" t="s">
         <v>14</v>
@@ -2814,17 +2824,17 @@
       <c r="G28" s="66"/>
     </row>
     <row r="29" spans="1:7" s="36" customFormat="1" ht="51" customHeight="1" thickBot="1">
-      <c r="A29" s="99">
+      <c r="A29" s="106">
         <v>8</v>
       </c>
-      <c r="B29" s="100" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="100" t="s">
-        <v>68</v>
+      <c r="B29" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="104" t="s">
+        <v>67</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E29" s="43" t="s">
         <v>28</v>
@@ -2837,17 +2847,17 @@
       </c>
     </row>
     <row r="30" spans="1:7" s="36" customFormat="1" ht="77.25" thickBot="1">
-      <c r="A30" s="99"/>
-      <c r="B30" s="100"/>
-      <c r="C30" s="100"/>
+      <c r="A30" s="106"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="104"/>
       <c r="D30" s="67" t="s">
         <v>53</v>
       </c>
       <c r="E30" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F30" s="87" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G30" s="83" t="s">
         <v>16</v>
@@ -2863,17 +2873,17 @@
       <c r="G31" s="66"/>
     </row>
     <row r="32" spans="1:7" s="36" customFormat="1" ht="52.5" customHeight="1" thickBot="1">
-      <c r="A32" s="99">
+      <c r="A32" s="106">
         <v>9</v>
       </c>
-      <c r="B32" s="100" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="100" t="s">
-        <v>68</v>
+      <c r="B32" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="104" t="s">
+        <v>67</v>
       </c>
       <c r="D32" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E32" s="43" t="s">
         <v>28</v>
@@ -2886,17 +2896,17 @@
       </c>
     </row>
     <row r="33" spans="1:7" s="36" customFormat="1" ht="77.25" thickBot="1">
-      <c r="A33" s="99"/>
-      <c r="B33" s="100"/>
-      <c r="C33" s="100"/>
+      <c r="A33" s="106"/>
+      <c r="B33" s="104"/>
+      <c r="C33" s="104"/>
       <c r="D33" s="67" t="s">
         <v>53</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F33" s="87" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G33" s="83" t="s">
         <v>17</v>
@@ -2912,17 +2922,17 @@
       <c r="G34" s="66"/>
     </row>
     <row r="35" spans="1:7" s="36" customFormat="1" ht="39" customHeight="1" thickBot="1">
-      <c r="A35" s="115">
+      <c r="A35" s="132">
         <v>10</v>
       </c>
-      <c r="B35" s="100" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="100" t="s">
-        <v>68</v>
+      <c r="B35" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="104" t="s">
+        <v>67</v>
       </c>
       <c r="D35" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E35" s="43" t="s">
         <v>28</v>
@@ -2935,32 +2945,32 @@
       </c>
     </row>
     <row r="36" spans="1:7" s="36" customFormat="1" ht="90" thickBot="1">
-      <c r="A36" s="115"/>
-      <c r="B36" s="100"/>
-      <c r="C36" s="100"/>
+      <c r="A36" s="132"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="104"/>
       <c r="D36" s="46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E36" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F36" s="87" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G36" s="83"/>
     </row>
     <row r="37" spans="1:7" s="36" customFormat="1" ht="90" thickBot="1">
-      <c r="A37" s="115"/>
-      <c r="B37" s="100"/>
-      <c r="C37" s="100"/>
+      <c r="A37" s="132"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="104"/>
       <c r="D37" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="47" t="s">
-        <v>78</v>
+      <c r="E37" s="97" t="s">
+        <v>177</v>
       </c>
       <c r="F37" s="87" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G37" s="83" t="s">
         <v>18</v>
@@ -2976,17 +2986,17 @@
       <c r="G38" s="66"/>
     </row>
     <row r="39" spans="1:7" s="36" customFormat="1" ht="54" customHeight="1" thickBot="1">
-      <c r="A39" s="99">
+      <c r="A39" s="106">
         <v>11</v>
       </c>
-      <c r="B39" s="100" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="100" t="s">
-        <v>69</v>
+      <c r="B39" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="104" t="s">
+        <v>68</v>
       </c>
       <c r="D39" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E39" s="43" t="s">
         <v>28</v>
@@ -2999,14 +3009,14 @@
       </c>
     </row>
     <row r="40" spans="1:7" s="36" customFormat="1" ht="66.75" customHeight="1" thickBot="1">
-      <c r="A40" s="99"/>
-      <c r="B40" s="100"/>
-      <c r="C40" s="100"/>
+      <c r="A40" s="106"/>
+      <c r="B40" s="104"/>
+      <c r="C40" s="104"/>
       <c r="D40" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="E40" s="47" t="s">
-        <v>79</v>
+        <v>72</v>
+      </c>
+      <c r="E40" s="97" t="s">
+        <v>77</v>
       </c>
       <c r="F40" s="87" t="s">
         <v>20</v>
@@ -3025,17 +3035,17 @@
       <c r="G41" s="66"/>
     </row>
     <row r="42" spans="1:7" s="36" customFormat="1" ht="52.5" customHeight="1" thickBot="1">
-      <c r="A42" s="99">
+      <c r="A42" s="106">
         <v>12</v>
       </c>
-      <c r="B42" s="100" t="s">
-        <v>66</v>
-      </c>
-      <c r="C42" s="100" t="s">
-        <v>68</v>
+      <c r="B42" s="104" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="104" t="s">
+        <v>67</v>
       </c>
       <c r="D42" s="46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E42" s="43" t="s">
         <v>28</v>
@@ -3048,14 +3058,14 @@
       </c>
     </row>
     <row r="43" spans="1:7" s="36" customFormat="1" ht="66.75" customHeight="1" thickBot="1">
-      <c r="A43" s="99"/>
-      <c r="B43" s="100"/>
-      <c r="C43" s="100"/>
+      <c r="A43" s="106"/>
+      <c r="B43" s="104"/>
+      <c r="C43" s="104"/>
       <c r="D43" s="47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E43" s="75" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F43" s="87" t="s">
         <v>19</v>
@@ -3074,17 +3084,17 @@
       <c r="G44" s="66"/>
     </row>
     <row r="45" spans="1:7" s="36" customFormat="1" ht="50.25" customHeight="1" thickBot="1">
-      <c r="A45" s="99">
+      <c r="A45" s="106">
         <v>13</v>
       </c>
-      <c r="B45" s="100" t="s">
+      <c r="B45" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="100" t="s">
-        <v>68</v>
-      </c>
       <c r="D45" s="46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E45" s="76" t="s">
         <v>28</v>
@@ -3097,14 +3107,14 @@
       </c>
     </row>
     <row r="46" spans="1:7" s="36" customFormat="1" ht="66.75" customHeight="1" thickBot="1">
-      <c r="A46" s="99"/>
-      <c r="B46" s="100"/>
-      <c r="C46" s="100"/>
+      <c r="A46" s="106"/>
+      <c r="B46" s="104"/>
+      <c r="C46" s="104"/>
       <c r="D46" s="47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E46" s="75" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F46" s="87" t="s">
         <v>21</v>
@@ -3123,17 +3133,17 @@
       <c r="G47" s="66"/>
     </row>
     <row r="48" spans="1:7" s="36" customFormat="1" ht="50.25" customHeight="1" thickBot="1">
-      <c r="A48" s="130">
+      <c r="A48" s="100">
         <v>14</v>
       </c>
-      <c r="B48" s="106" t="s">
-        <v>145</v>
-      </c>
-      <c r="C48" s="106" t="s">
+      <c r="B48" s="103" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="103" t="s">
         <v>14</v>
       </c>
       <c r="D48" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E48" s="43" t="s">
         <v>28</v>
@@ -3146,34 +3156,34 @@
       </c>
     </row>
     <row r="49" spans="1:198" s="36" customFormat="1" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A49" s="131"/>
-      <c r="B49" s="100"/>
-      <c r="C49" s="100"/>
+      <c r="A49" s="101"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="104"/>
       <c r="D49" s="67" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E49" s="67" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F49" s="87" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G49" s="83" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:198" s="36" customFormat="1" ht="66.75" customHeight="1" thickBot="1">
-      <c r="A50" s="132"/>
-      <c r="B50" s="129"/>
-      <c r="C50" s="129"/>
+      <c r="A50" s="102"/>
+      <c r="B50" s="105"/>
+      <c r="C50" s="105"/>
       <c r="D50" s="76" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E50" s="94" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="F50" s="95" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G50" s="83" t="s">
         <v>14</v>
@@ -3189,17 +3199,17 @@
       <c r="G51" s="66"/>
     </row>
     <row r="52" spans="1:198" s="36" customFormat="1" ht="50.25" customHeight="1" thickBot="1">
-      <c r="A52" s="130">
+      <c r="A52" s="100">
         <v>15</v>
       </c>
-      <c r="B52" s="106" t="s">
-        <v>146</v>
-      </c>
-      <c r="C52" s="106" t="s">
+      <c r="B52" s="103" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" s="103" t="s">
         <v>14</v>
       </c>
       <c r="D52" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E52" s="43" t="s">
         <v>28</v>
@@ -3212,34 +3222,34 @@
       </c>
     </row>
     <row r="53" spans="1:198" s="36" customFormat="1" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A53" s="131"/>
-      <c r="B53" s="100"/>
-      <c r="C53" s="100"/>
+      <c r="A53" s="101"/>
+      <c r="B53" s="104"/>
+      <c r="C53" s="104"/>
       <c r="D53" s="67" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E53" s="67" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F53" s="87" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G53" s="83" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:198" s="36" customFormat="1" ht="66.75" customHeight="1" thickBot="1">
-      <c r="A54" s="132"/>
-      <c r="B54" s="129"/>
-      <c r="C54" s="129"/>
+      <c r="A54" s="102"/>
+      <c r="B54" s="105"/>
+      <c r="C54" s="105"/>
       <c r="D54" s="76" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E54" s="94" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="F54" s="95" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G54" s="83" t="s">
         <v>14</v>
@@ -3255,17 +3265,17 @@
       <c r="G55" s="66"/>
     </row>
     <row r="56" spans="1:198" s="36" customFormat="1" ht="50.25" customHeight="1" thickBot="1">
-      <c r="A56" s="130">
+      <c r="A56" s="100">
         <v>16</v>
       </c>
-      <c r="B56" s="106" t="s">
-        <v>166</v>
-      </c>
-      <c r="C56" s="106" t="s">
+      <c r="B56" s="103" t="s">
+        <v>163</v>
+      </c>
+      <c r="C56" s="103" t="s">
         <v>14</v>
       </c>
       <c r="D56" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E56" s="43" t="s">
         <v>28</v>
@@ -3278,34 +3288,34 @@
       </c>
     </row>
     <row r="57" spans="1:198" s="36" customFormat="1" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A57" s="131"/>
-      <c r="B57" s="100"/>
-      <c r="C57" s="100"/>
+      <c r="A57" s="101"/>
+      <c r="B57" s="104"/>
+      <c r="C57" s="104"/>
       <c r="D57" s="67" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E57" s="67" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F57" s="87" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G57" s="83" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:198" s="36" customFormat="1" ht="66.75" customHeight="1" thickBot="1">
-      <c r="A58" s="132"/>
-      <c r="B58" s="129"/>
-      <c r="C58" s="129"/>
+      <c r="A58" s="102"/>
+      <c r="B58" s="105"/>
+      <c r="C58" s="105"/>
       <c r="D58" s="76" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E58" s="94" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F58" s="95" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G58" s="83" t="s">
         <v>14</v>
@@ -3321,25 +3331,25 @@
       <c r="G59" s="69"/>
     </row>
     <row r="60" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A60" s="99">
+      <c r="A60" s="106">
         <v>17</v>
       </c>
-      <c r="B60" s="100" t="s">
-        <v>86</v>
-      </c>
-      <c r="C60" s="100" t="s">
-        <v>68</v>
-      </c>
-      <c r="D60" s="100" t="s">
-        <v>132</v>
-      </c>
-      <c r="E60" s="100" t="s">
-        <v>83</v>
-      </c>
-      <c r="F60" s="101" t="s">
+      <c r="B60" s="104" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="104" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60" s="104" t="s">
+        <v>130</v>
+      </c>
+      <c r="E60" s="104" t="s">
+        <v>81</v>
+      </c>
+      <c r="F60" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="G60" s="103" t="s">
+      <c r="G60" s="109" t="s">
         <v>14</v>
       </c>
       <c r="H60" s="34"/>
@@ -3535,13 +3545,13 @@
       <c r="GP60" s="34"/>
     </row>
     <row r="61" spans="1:198" s="33" customFormat="1" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A61" s="99"/>
-      <c r="B61" s="100"/>
-      <c r="C61" s="100"/>
-      <c r="D61" s="100"/>
-      <c r="E61" s="100"/>
-      <c r="F61" s="102"/>
-      <c r="G61" s="104"/>
+      <c r="A61" s="106"/>
+      <c r="B61" s="104"/>
+      <c r="C61" s="104"/>
+      <c r="D61" s="104"/>
+      <c r="E61" s="104"/>
+      <c r="F61" s="108"/>
+      <c r="G61" s="110"/>
       <c r="H61" s="34"/>
       <c r="I61" s="34"/>
       <c r="J61" s="34"/>
@@ -3744,25 +3754,25 @@
       <c r="G62" s="69"/>
     </row>
     <row r="63" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A63" s="99">
+      <c r="A63" s="106">
         <v>18</v>
       </c>
-      <c r="B63" s="100" t="s">
-        <v>84</v>
-      </c>
-      <c r="C63" s="100" t="s">
-        <v>68</v>
-      </c>
-      <c r="D63" s="100" t="s">
-        <v>131</v>
-      </c>
-      <c r="E63" s="100" t="s">
-        <v>85</v>
-      </c>
-      <c r="F63" s="101" t="s">
+      <c r="B63" s="104" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="104" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="E63" s="104" t="s">
+        <v>83</v>
+      </c>
+      <c r="F63" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="G63" s="103" t="s">
+      <c r="G63" s="109" t="s">
         <v>14</v>
       </c>
       <c r="H63" s="34"/>
@@ -3958,13 +3968,13 @@
       <c r="GP63" s="34"/>
     </row>
     <row r="64" spans="1:198" s="33" customFormat="1" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A64" s="99"/>
-      <c r="B64" s="100"/>
-      <c r="C64" s="100"/>
-      <c r="D64" s="100"/>
-      <c r="E64" s="100"/>
-      <c r="F64" s="102"/>
-      <c r="G64" s="104"/>
+      <c r="A64" s="106"/>
+      <c r="B64" s="104"/>
+      <c r="C64" s="104"/>
+      <c r="D64" s="104"/>
+      <c r="E64" s="104"/>
+      <c r="F64" s="108"/>
+      <c r="G64" s="110"/>
       <c r="H64" s="34"/>
       <c r="I64" s="34"/>
       <c r="J64" s="34"/>
@@ -4167,25 +4177,25 @@
       <c r="G65" s="69"/>
     </row>
     <row r="66" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A66" s="105">
+      <c r="A66" s="133">
         <v>19</v>
       </c>
-      <c r="B66" s="106" t="s">
+      <c r="B66" s="103" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" s="103" t="s">
+        <v>67</v>
+      </c>
+      <c r="D66" s="103" t="s">
         <v>128</v>
       </c>
-      <c r="C66" s="106" t="s">
-        <v>68</v>
-      </c>
-      <c r="D66" s="106" t="s">
-        <v>130</v>
-      </c>
-      <c r="E66" s="106" t="s">
-        <v>129</v>
-      </c>
-      <c r="F66" s="101" t="s">
+      <c r="E66" s="103" t="s">
+        <v>127</v>
+      </c>
+      <c r="F66" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="G66" s="103" t="s">
+      <c r="G66" s="109" t="s">
         <v>14</v>
       </c>
       <c r="H66" s="34"/>
@@ -4381,13 +4391,13 @@
       <c r="GP66" s="34"/>
     </row>
     <row r="67" spans="1:198" s="33" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A67" s="99"/>
-      <c r="B67" s="100"/>
-      <c r="C67" s="100"/>
-      <c r="D67" s="100"/>
-      <c r="E67" s="100"/>
-      <c r="F67" s="102"/>
-      <c r="G67" s="104"/>
+      <c r="A67" s="106"/>
+      <c r="B67" s="104"/>
+      <c r="C67" s="104"/>
+      <c r="D67" s="104"/>
+      <c r="E67" s="104"/>
+      <c r="F67" s="108"/>
+      <c r="G67" s="110"/>
       <c r="H67" s="34"/>
       <c r="I67" s="34"/>
       <c r="J67" s="34"/>
@@ -4582,14 +4592,58 @@
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="F60:F61"/>
     <mergeCell ref="G60:G61"/>
@@ -4606,58 +4660,14 @@
     <mergeCell ref="C48:C50"/>
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C56:C58"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4669,8 +4679,8 @@
   <dimension ref="A1:GX57"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B56" sqref="B56:B57"/>
+      <pane ySplit="6" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="12.75"/>
@@ -4689,18 +4699,18 @@
       <c r="A1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="144"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="123" t="s">
+      <c r="C1" s="141"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="126" t="s">
+      <c r="F1" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="126" t="s">
+      <c r="G1" s="121" t="s">
         <v>9</v>
       </c>
       <c r="H1" s="71"/>
@@ -4905,12 +4915,12 @@
     </row>
     <row r="2" spans="1:206" s="7" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
       <c r="A2" s="74"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
       <c r="H2" s="71"/>
       <c r="I2" s="71"/>
       <c r="J2" s="71"/>
@@ -5112,17 +5122,17 @@
       <c r="GX2" s="37"/>
     </row>
     <row r="3" spans="1:206" s="5" customFormat="1">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="139"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
       <c r="H3" s="71"/>
       <c r="I3" s="71"/>
       <c r="J3" s="71"/>
@@ -5324,13 +5334,13 @@
       <c r="GX3" s="37"/>
     </row>
     <row r="4" spans="1:206" s="5" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A4" s="108"/>
-      <c r="B4" s="141"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="143"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
+      <c r="A4" s="125"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
       <c r="H4" s="71"/>
       <c r="I4" s="71"/>
       <c r="J4" s="71"/>
@@ -6146,13 +6156,13 @@
       <c r="GP7" s="36"/>
     </row>
     <row r="8" spans="1:206" s="41" customFormat="1" ht="41.25" customHeight="1" thickBot="1">
-      <c r="A8" s="130">
+      <c r="A8" s="100">
         <v>20</v>
       </c>
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="137" t="s">
+      <c r="C8" s="134" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="75" t="s">
@@ -6360,9 +6370,9 @@
       <c r="GP8" s="40"/>
     </row>
     <row r="9" spans="1:206" s="41" customFormat="1" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A9" s="132"/>
-      <c r="B9" s="138"/>
-      <c r="C9" s="138"/>
+      <c r="A9" s="102"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="135"/>
       <c r="D9" s="75" t="s">
         <v>30</v>
       </c>
@@ -6768,13 +6778,13 @@
       <c r="GP10" s="51"/>
     </row>
     <row r="11" spans="1:206" s="41" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A11" s="130">
+      <c r="A11" s="100">
         <v>21</v>
       </c>
-      <c r="B11" s="137" t="s">
+      <c r="B11" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="137" t="s">
+      <c r="C11" s="134" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="75" t="s">
@@ -6982,9 +6992,9 @@
       <c r="GP11" s="40"/>
     </row>
     <row r="12" spans="1:206" s="41" customFormat="1" ht="48.75" customHeight="1" thickBot="1">
-      <c r="A12" s="132"/>
-      <c r="B12" s="138"/>
-      <c r="C12" s="138"/>
+      <c r="A12" s="102"/>
+      <c r="B12" s="135"/>
+      <c r="C12" s="135"/>
       <c r="D12" s="75" t="s">
         <v>30</v>
       </c>
@@ -7392,13 +7402,13 @@
       <c r="GP13" s="51"/>
     </row>
     <row r="14" spans="1:206" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A14" s="130">
+      <c r="A14" s="100">
         <v>22</v>
       </c>
-      <c r="B14" s="137" t="s">
+      <c r="B14" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="137" t="s">
+      <c r="C14" s="134" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="75" t="s">
@@ -7606,9 +7616,9 @@
       <c r="GP14" s="34"/>
     </row>
     <row r="15" spans="1:206" s="33" customFormat="1" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A15" s="132"/>
-      <c r="B15" s="138"/>
-      <c r="C15" s="138"/>
+      <c r="A15" s="102"/>
+      <c r="B15" s="135"/>
+      <c r="C15" s="135"/>
       <c r="D15" s="75" t="s">
         <v>30</v>
       </c>
@@ -8014,13 +8024,13 @@
       <c r="GP16" s="51"/>
     </row>
     <row r="17" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A17" s="130">
+      <c r="A17" s="100">
         <v>23</v>
       </c>
-      <c r="B17" s="137" t="s">
+      <c r="B17" s="134" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="137" t="s">
+      <c r="C17" s="134" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="75" t="s">
@@ -8228,9 +8238,9 @@
       <c r="GP17" s="34"/>
     </row>
     <row r="18" spans="1:198" s="33" customFormat="1" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A18" s="132"/>
-      <c r="B18" s="138"/>
-      <c r="C18" s="138"/>
+      <c r="A18" s="102"/>
+      <c r="B18" s="135"/>
+      <c r="C18" s="135"/>
       <c r="D18" s="75" t="s">
         <v>30</v>
       </c>
@@ -8636,13 +8646,13 @@
       <c r="GP19" s="51"/>
     </row>
     <row r="20" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A20" s="130">
+      <c r="A20" s="100">
         <v>24</v>
       </c>
-      <c r="B20" s="137" t="s">
+      <c r="B20" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="137" t="s">
+      <c r="C20" s="134" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="75" t="s">
@@ -8850,9 +8860,9 @@
       <c r="GP20" s="34"/>
     </row>
     <row r="21" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A21" s="132"/>
-      <c r="B21" s="138"/>
-      <c r="C21" s="138"/>
+      <c r="A21" s="102"/>
+      <c r="B21" s="135"/>
+      <c r="C21" s="135"/>
       <c r="D21" s="75" t="s">
         <v>30</v>
       </c>
@@ -8860,7 +8870,7 @@
         <v>29</v>
       </c>
       <c r="F21" s="87" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G21" s="83" t="s">
         <v>14</v>
@@ -9258,13 +9268,13 @@
       <c r="GP22" s="51"/>
     </row>
     <row r="23" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A23" s="130">
+      <c r="A23" s="100">
         <v>25</v>
       </c>
-      <c r="B23" s="137" t="s">
+      <c r="B23" s="134" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="137" t="s">
+      <c r="C23" s="134" t="s">
         <v>27</v>
       </c>
       <c r="D23" s="75" t="s">
@@ -9472,9 +9482,9 @@
       <c r="GP23" s="34"/>
     </row>
     <row r="24" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A24" s="132"/>
-      <c r="B24" s="138"/>
-      <c r="C24" s="138"/>
+      <c r="A24" s="102"/>
+      <c r="B24" s="135"/>
+      <c r="C24" s="135"/>
       <c r="D24" s="75" t="s">
         <v>30</v>
       </c>
@@ -9787,13 +9797,13 @@
       <c r="DA25" s="8"/>
     </row>
     <row r="26" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A26" s="130">
+      <c r="A26" s="100">
         <v>26</v>
       </c>
-      <c r="B26" s="137" t="s">
+      <c r="B26" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="137" t="s">
+      <c r="C26" s="134" t="s">
         <v>27</v>
       </c>
       <c r="D26" s="75" t="s">
@@ -10001,9 +10011,9 @@
       <c r="GP26" s="34"/>
     </row>
     <row r="27" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A27" s="132"/>
-      <c r="B27" s="138"/>
-      <c r="C27" s="138"/>
+      <c r="A27" s="102"/>
+      <c r="B27" s="135"/>
+      <c r="C27" s="135"/>
       <c r="D27" s="75" t="s">
         <v>30</v>
       </c>
@@ -10316,13 +10326,13 @@
       <c r="DA28" s="8"/>
     </row>
     <row r="29" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A29" s="130">
+      <c r="A29" s="100">
         <v>27</v>
       </c>
-      <c r="B29" s="137" t="s">
+      <c r="B29" s="134" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="137" t="s">
+      <c r="C29" s="134" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="75" t="s">
@@ -10530,9 +10540,9 @@
       <c r="GP29" s="34"/>
     </row>
     <row r="30" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A30" s="132"/>
-      <c r="B30" s="138"/>
-      <c r="C30" s="138"/>
+      <c r="A30" s="102"/>
+      <c r="B30" s="135"/>
+      <c r="C30" s="135"/>
       <c r="D30" s="75" t="s">
         <v>30</v>
       </c>
@@ -10543,7 +10553,7 @@
         <v>44</v>
       </c>
       <c r="G30" s="83" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H30" s="34"/>
       <c r="I30" s="34"/>
@@ -10845,13 +10855,13 @@
       <c r="DA31" s="8"/>
     </row>
     <row r="32" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A32" s="130">
+      <c r="A32" s="100">
         <v>28</v>
       </c>
-      <c r="B32" s="137" t="s">
+      <c r="B32" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="137" t="s">
+      <c r="C32" s="134" t="s">
         <v>35</v>
       </c>
       <c r="D32" s="75" t="s">
@@ -11059,9 +11069,9 @@
       <c r="GP32" s="34"/>
     </row>
     <row r="33" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A33" s="132"/>
-      <c r="B33" s="138"/>
-      <c r="C33" s="138"/>
+      <c r="A33" s="102"/>
+      <c r="B33" s="135"/>
+      <c r="C33" s="135"/>
       <c r="D33" s="75" t="s">
         <v>30</v>
       </c>
@@ -11374,13 +11384,13 @@
       <c r="DA34" s="8"/>
     </row>
     <row r="35" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A35" s="130">
+      <c r="A35" s="100">
         <v>29</v>
       </c>
-      <c r="B35" s="137" t="s">
+      <c r="B35" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="137" t="s">
+      <c r="C35" s="134" t="s">
         <v>48</v>
       </c>
       <c r="D35" s="75" t="s">
@@ -11588,9 +11598,9 @@
       <c r="GP35" s="34"/>
     </row>
     <row r="36" spans="1:198" s="33" customFormat="1" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A36" s="132"/>
-      <c r="B36" s="138"/>
-      <c r="C36" s="138"/>
+      <c r="A36" s="102"/>
+      <c r="B36" s="135"/>
+      <c r="C36" s="135"/>
       <c r="D36" s="75" t="s">
         <v>30</v>
       </c>
@@ -11903,13 +11913,13 @@
       <c r="DA37" s="8"/>
     </row>
     <row r="38" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A38" s="130">
+      <c r="A38" s="100">
         <v>30</v>
       </c>
-      <c r="B38" s="137" t="s">
+      <c r="B38" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="137" t="s">
+      <c r="C38" s="134" t="s">
         <v>49</v>
       </c>
       <c r="D38" s="75" t="s">
@@ -12117,9 +12127,9 @@
       <c r="GP38" s="34"/>
     </row>
     <row r="39" spans="1:198" s="33" customFormat="1" ht="48" customHeight="1" thickBot="1">
-      <c r="A39" s="132"/>
-      <c r="B39" s="138"/>
-      <c r="C39" s="138"/>
+      <c r="A39" s="102"/>
+      <c r="B39" s="135"/>
+      <c r="C39" s="135"/>
       <c r="D39" s="75" t="s">
         <v>30</v>
       </c>
@@ -12432,14 +12442,14 @@
       <c r="DA40" s="8"/>
     </row>
     <row r="41" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A41" s="130">
+      <c r="A41" s="100">
         <v>31</v>
       </c>
-      <c r="B41" s="137" t="s">
-        <v>149</v>
-      </c>
-      <c r="C41" s="137" t="s">
-        <v>151</v>
+      <c r="B41" s="134" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" s="134" t="s">
+        <v>148</v>
       </c>
       <c r="D41" s="75" t="s">
         <v>31</v>
@@ -12646,17 +12656,17 @@
       <c r="GP41" s="34"/>
     </row>
     <row r="42" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A42" s="132"/>
-      <c r="B42" s="138"/>
-      <c r="C42" s="138"/>
+      <c r="A42" s="102"/>
+      <c r="B42" s="135"/>
+      <c r="C42" s="135"/>
       <c r="D42" s="75" t="s">
         <v>30</v>
       </c>
       <c r="E42" s="75" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F42" s="87" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G42" s="83" t="s">
         <v>14</v>
@@ -12961,14 +12971,14 @@
       <c r="DA43" s="8"/>
     </row>
     <row r="44" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A44" s="130">
+      <c r="A44" s="100">
         <v>32</v>
       </c>
-      <c r="B44" s="137" t="s">
-        <v>150</v>
-      </c>
-      <c r="C44" s="137" t="s">
-        <v>152</v>
+      <c r="B44" s="134" t="s">
+        <v>147</v>
+      </c>
+      <c r="C44" s="134" t="s">
+        <v>149</v>
       </c>
       <c r="D44" s="75" t="s">
         <v>31</v>
@@ -13175,17 +13185,17 @@
       <c r="GP44" s="34"/>
     </row>
     <row r="45" spans="1:198" s="33" customFormat="1" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A45" s="132"/>
-      <c r="B45" s="138"/>
-      <c r="C45" s="138"/>
+      <c r="A45" s="102"/>
+      <c r="B45" s="135"/>
+      <c r="C45" s="135"/>
       <c r="D45" s="75" t="s">
         <v>30</v>
       </c>
       <c r="E45" s="75" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F45" s="87" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G45" s="83" t="s">
         <v>14</v>
@@ -13490,14 +13500,14 @@
       <c r="DA46" s="8"/>
     </row>
     <row r="47" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A47" s="130">
+      <c r="A47" s="100">
         <v>33</v>
       </c>
-      <c r="B47" s="137" t="s">
-        <v>170</v>
-      </c>
-      <c r="C47" s="137" t="s">
-        <v>171</v>
+      <c r="B47" s="134" t="s">
+        <v>166</v>
+      </c>
+      <c r="C47" s="134" t="s">
+        <v>167</v>
       </c>
       <c r="D47" s="75" t="s">
         <v>31</v>
@@ -13704,17 +13714,17 @@
       <c r="GP47" s="34"/>
     </row>
     <row r="48" spans="1:198" s="33" customFormat="1" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A48" s="132"/>
-      <c r="B48" s="138"/>
-      <c r="C48" s="138"/>
+      <c r="A48" s="102"/>
+      <c r="B48" s="135"/>
+      <c r="C48" s="135"/>
       <c r="D48" s="75" t="s">
         <v>30</v>
       </c>
       <c r="E48" s="75" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F48" s="87" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G48" s="83" t="s">
         <v>14</v>
@@ -14019,25 +14029,25 @@
       <c r="DA49" s="8"/>
     </row>
     <row r="50" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A50" s="133">
+      <c r="A50" s="143">
         <v>34</v>
       </c>
-      <c r="B50" s="106" t="s">
-        <v>82</v>
-      </c>
-      <c r="C50" s="106" t="s">
-        <v>68</v>
-      </c>
-      <c r="D50" s="106" t="s">
-        <v>135</v>
-      </c>
-      <c r="E50" s="106" t="s">
-        <v>83</v>
-      </c>
-      <c r="F50" s="101" t="s">
+      <c r="B50" s="103" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" s="103" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" s="103" t="s">
+        <v>133</v>
+      </c>
+      <c r="E50" s="103" t="s">
+        <v>81</v>
+      </c>
+      <c r="F50" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="G50" s="103" t="s">
+      <c r="G50" s="109" t="s">
         <v>14</v>
       </c>
       <c r="H50" s="34"/>
@@ -14233,13 +14243,13 @@
       <c r="GP50" s="34"/>
     </row>
     <row r="51" spans="1:198" s="33" customFormat="1" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A51" s="134"/>
-      <c r="B51" s="129"/>
-      <c r="C51" s="129"/>
-      <c r="D51" s="129"/>
-      <c r="E51" s="129"/>
-      <c r="F51" s="135"/>
-      <c r="G51" s="136"/>
+      <c r="A51" s="144"/>
+      <c r="B51" s="105"/>
+      <c r="C51" s="105"/>
+      <c r="D51" s="105"/>
+      <c r="E51" s="105"/>
+      <c r="F51" s="145"/>
+      <c r="G51" s="146"/>
       <c r="H51" s="34"/>
       <c r="I51" s="34"/>
       <c r="J51" s="34"/>
@@ -14540,25 +14550,25 @@
       <c r="DA52" s="8"/>
     </row>
     <row r="53" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A53" s="105">
+      <c r="A53" s="133">
         <v>35</v>
       </c>
-      <c r="B53" s="106" t="s">
-        <v>84</v>
-      </c>
-      <c r="C53" s="106" t="s">
-        <v>68</v>
-      </c>
-      <c r="D53" s="106" t="s">
-        <v>133</v>
-      </c>
-      <c r="E53" s="106" t="s">
-        <v>85</v>
-      </c>
-      <c r="F53" s="101" t="s">
+      <c r="B53" s="103" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="103" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53" s="103" t="s">
+        <v>131</v>
+      </c>
+      <c r="E53" s="103" t="s">
+        <v>83</v>
+      </c>
+      <c r="F53" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="G53" s="103" t="s">
+      <c r="G53" s="109" t="s">
         <v>14</v>
       </c>
       <c r="H53" s="34"/>
@@ -14754,13 +14764,13 @@
       <c r="GP53" s="34"/>
     </row>
     <row r="54" spans="1:198" s="33" customFormat="1" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A54" s="99"/>
-      <c r="B54" s="100"/>
-      <c r="C54" s="100"/>
-      <c r="D54" s="100"/>
-      <c r="E54" s="100"/>
-      <c r="F54" s="102"/>
-      <c r="G54" s="104"/>
+      <c r="A54" s="106"/>
+      <c r="B54" s="104"/>
+      <c r="C54" s="104"/>
+      <c r="D54" s="104"/>
+      <c r="E54" s="104"/>
+      <c r="F54" s="108"/>
+      <c r="G54" s="110"/>
       <c r="H54" s="34"/>
       <c r="I54" s="34"/>
       <c r="J54" s="34"/>
@@ -14963,25 +14973,25 @@
       <c r="G55" s="69"/>
     </row>
     <row r="56" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A56" s="105">
+      <c r="A56" s="133">
         <v>36</v>
       </c>
-      <c r="B56" s="106" t="s">
-        <v>128</v>
-      </c>
-      <c r="C56" s="106" t="s">
-        <v>68</v>
-      </c>
-      <c r="D56" s="106" t="s">
-        <v>134</v>
-      </c>
-      <c r="E56" s="106" t="s">
-        <v>129</v>
-      </c>
-      <c r="F56" s="101" t="s">
+      <c r="B56" s="103" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" s="103" t="s">
+        <v>67</v>
+      </c>
+      <c r="D56" s="103" t="s">
+        <v>132</v>
+      </c>
+      <c r="E56" s="103" t="s">
+        <v>127</v>
+      </c>
+      <c r="F56" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="G56" s="103" t="s">
+      <c r="G56" s="109" t="s">
         <v>14</v>
       </c>
       <c r="H56" s="34"/>
@@ -15177,13 +15187,13 @@
       <c r="GP56" s="34"/>
     </row>
     <row r="57" spans="1:198" s="33" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A57" s="99"/>
-      <c r="B57" s="100"/>
-      <c r="C57" s="100"/>
-      <c r="D57" s="100"/>
-      <c r="E57" s="100"/>
-      <c r="F57" s="102"/>
-      <c r="G57" s="104"/>
+      <c r="A57" s="106"/>
+      <c r="B57" s="104"/>
+      <c r="C57" s="104"/>
+      <c r="D57" s="104"/>
+      <c r="E57" s="104"/>
+      <c r="F57" s="108"/>
+      <c r="G57" s="110"/>
       <c r="H57" s="34"/>
       <c r="I57" s="34"/>
       <c r="J57" s="34"/>
@@ -15378,12 +15388,54 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="B41:B42"/>
     <mergeCell ref="C41:C42"/>
@@ -15400,54 +15452,12 @@
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:E4"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
   </mergeCells>
   <conditionalFormatting sqref="G21">
     <cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal">
@@ -15466,9 +15476,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:GX80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A82" sqref="A82"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="12.75"/>
@@ -15487,12 +15497,12 @@
       <c r="A1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="144"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="123" t="s">
+      <c r="C1" s="141"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="118" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="89" t="s">
@@ -15703,10 +15713,10 @@
     </row>
     <row r="2" spans="1:206" s="7" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
       <c r="A2" s="74"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="124"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="119"/>
       <c r="F2" s="90"/>
       <c r="G2" s="90"/>
       <c r="H2" s="71"/>
@@ -15910,15 +15920,15 @@
       <c r="GX2" s="37"/>
     </row>
     <row r="3" spans="1:206" s="5" customFormat="1">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="109" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="139"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="124"/>
+      <c r="B3" s="126" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="136"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="119"/>
       <c r="F3" s="90"/>
       <c r="G3" s="90"/>
       <c r="H3" s="71"/>
@@ -16122,11 +16132,11 @@
       <c r="GX3" s="37"/>
     </row>
     <row r="4" spans="1:206" s="5" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A4" s="108"/>
-      <c r="B4" s="141"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="143"/>
-      <c r="E4" s="125"/>
+      <c r="A4" s="125"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="120"/>
       <c r="F4" s="91"/>
       <c r="G4" s="91"/>
       <c r="H4" s="71"/>
@@ -16948,16 +16958,16 @@
         <v>37</v>
       </c>
       <c r="B8" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="75" t="s">
         <v>90</v>
-      </c>
-      <c r="C8" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="75" t="s">
-        <v>92</v>
       </c>
       <c r="F8" s="85" t="s">
         <v>14</v>
@@ -17358,20 +17368,20 @@
       <c r="GP9" s="51"/>
     </row>
     <row r="10" spans="1:206" s="41" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A10" s="130">
+      <c r="A10" s="100">
         <v>38</v>
       </c>
-      <c r="B10" s="137" t="s">
+      <c r="B10" s="134" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="134" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="137" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" s="75" t="s">
-        <v>95</v>
-      </c>
       <c r="E10" s="75" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F10" s="87" t="s">
         <v>14</v>
@@ -17572,14 +17582,14 @@
       <c r="GP10" s="40"/>
     </row>
     <row r="11" spans="1:206" s="41" customFormat="1" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A11" s="131"/>
-      <c r="B11" s="146"/>
-      <c r="C11" s="146"/>
+      <c r="A11" s="101"/>
+      <c r="B11" s="147"/>
+      <c r="C11" s="147"/>
       <c r="D11" s="75" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E11" s="75" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F11" s="87" t="s">
         <v>14</v>
@@ -17780,14 +17790,14 @@
       <c r="GP11" s="40"/>
     </row>
     <row r="12" spans="1:206" s="52" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A12" s="131"/>
-      <c r="B12" s="146"/>
-      <c r="C12" s="146"/>
+      <c r="A12" s="101"/>
+      <c r="B12" s="147"/>
+      <c r="C12" s="147"/>
       <c r="D12" s="75" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E12" s="75" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F12" s="87" t="s">
         <v>14</v>
@@ -17988,14 +17998,14 @@
       <c r="GP12" s="51"/>
     </row>
     <row r="13" spans="1:206" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A13" s="132"/>
-      <c r="B13" s="138"/>
-      <c r="C13" s="138"/>
+      <c r="A13" s="102"/>
+      <c r="B13" s="135"/>
+      <c r="C13" s="135"/>
       <c r="D13" s="75" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E13" s="75" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F13" s="87" t="s">
         <v>14</v>
@@ -18396,20 +18406,20 @@
       <c r="GP14" s="51"/>
     </row>
     <row r="15" spans="1:206" s="52" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A15" s="130">
+      <c r="A15" s="100">
         <v>39</v>
       </c>
-      <c r="B15" s="137" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" s="137" t="s">
-        <v>110</v>
+      <c r="B15" s="134" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="134" t="s">
+        <v>108</v>
       </c>
       <c r="D15" s="75" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E15" s="75" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F15" s="87" t="s">
         <v>14</v>
@@ -18610,14 +18620,14 @@
       <c r="GP15" s="51"/>
     </row>
     <row r="16" spans="1:206" s="33" customFormat="1" ht="41.25" customHeight="1" thickBot="1">
-      <c r="A16" s="131"/>
-      <c r="B16" s="146"/>
-      <c r="C16" s="146"/>
+      <c r="A16" s="101"/>
+      <c r="B16" s="147"/>
+      <c r="C16" s="147"/>
       <c r="D16" s="75" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E16" s="75" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F16" s="87" t="s">
         <v>14</v>
@@ -18818,14 +18828,14 @@
       <c r="GP16" s="34"/>
     </row>
     <row r="17" spans="1:198" s="33" customFormat="1" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A17" s="131"/>
-      <c r="B17" s="146"/>
-      <c r="C17" s="146"/>
+      <c r="A17" s="101"/>
+      <c r="B17" s="147"/>
+      <c r="C17" s="147"/>
       <c r="D17" s="75" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E17" s="75" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F17" s="87" t="s">
         <v>14</v>
@@ -19026,14 +19036,14 @@
       <c r="GP17" s="34"/>
     </row>
     <row r="18" spans="1:198" s="52" customFormat="1" ht="41.25" customHeight="1" thickBot="1">
-      <c r="A18" s="131"/>
-      <c r="B18" s="146"/>
-      <c r="C18" s="146"/>
+      <c r="A18" s="101"/>
+      <c r="B18" s="147"/>
+      <c r="C18" s="147"/>
       <c r="D18" s="75" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E18" s="75" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F18" s="87" t="s">
         <v>14</v>
@@ -19234,14 +19244,14 @@
       <c r="GP18" s="51"/>
     </row>
     <row r="19" spans="1:198" s="33" customFormat="1" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A19" s="131"/>
-      <c r="B19" s="146"/>
-      <c r="C19" s="146"/>
+      <c r="A19" s="101"/>
+      <c r="B19" s="147"/>
+      <c r="C19" s="147"/>
       <c r="D19" s="75" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E19" s="75" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F19" s="87" t="s">
         <v>14</v>
@@ -19442,14 +19452,14 @@
       <c r="GP19" s="34"/>
     </row>
     <row r="20" spans="1:198" s="52" customFormat="1" ht="41.25" customHeight="1" thickBot="1">
-      <c r="A20" s="132"/>
-      <c r="B20" s="138"/>
-      <c r="C20" s="138"/>
+      <c r="A20" s="102"/>
+      <c r="B20" s="135"/>
+      <c r="C20" s="135"/>
       <c r="D20" s="75" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E20" s="75" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>14</v>
@@ -19850,20 +19860,20 @@
       <c r="GP21" s="51"/>
     </row>
     <row r="22" spans="1:198" s="52" customFormat="1" ht="41.25" customHeight="1" thickBot="1">
-      <c r="A22" s="130">
+      <c r="A22" s="100">
         <v>40</v>
       </c>
-      <c r="B22" s="137" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="137" t="s">
-        <v>111</v>
+      <c r="B22" s="134" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="134" t="s">
+        <v>109</v>
       </c>
       <c r="D22" s="75" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E22" s="75" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F22" s="87" t="s">
         <v>14</v>
@@ -20064,14 +20074,14 @@
       <c r="GP22" s="51"/>
     </row>
     <row r="23" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A23" s="131"/>
-      <c r="B23" s="146"/>
-      <c r="C23" s="146"/>
+      <c r="A23" s="101"/>
+      <c r="B23" s="147"/>
+      <c r="C23" s="147"/>
       <c r="D23" s="75" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E23" s="75" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F23" s="87" t="s">
         <v>14</v>
@@ -20272,14 +20282,14 @@
       <c r="GP23" s="34"/>
     </row>
     <row r="24" spans="1:198" s="33" customFormat="1" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A24" s="131"/>
-      <c r="B24" s="146"/>
-      <c r="C24" s="146"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="147"/>
+      <c r="C24" s="147"/>
       <c r="D24" s="75" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E24" s="75" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F24" s="87" t="s">
         <v>14</v>
@@ -20480,14 +20490,14 @@
       <c r="GP24" s="34"/>
     </row>
     <row r="25" spans="1:198" s="52" customFormat="1" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A25" s="131"/>
-      <c r="B25" s="146"/>
-      <c r="C25" s="146"/>
+      <c r="A25" s="101"/>
+      <c r="B25" s="147"/>
+      <c r="C25" s="147"/>
       <c r="D25" s="75" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E25" s="75" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F25" s="87" t="s">
         <v>14</v>
@@ -20688,14 +20698,14 @@
       <c r="GP25" s="51"/>
     </row>
     <row r="26" spans="1:198" s="33" customFormat="1" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A26" s="131"/>
-      <c r="B26" s="146"/>
-      <c r="C26" s="146"/>
+      <c r="A26" s="101"/>
+      <c r="B26" s="147"/>
+      <c r="C26" s="147"/>
       <c r="D26" s="75" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E26" s="75" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F26" s="87" t="s">
         <v>14</v>
@@ -20896,14 +20906,14 @@
       <c r="GP26" s="34"/>
     </row>
     <row r="27" spans="1:198" s="52" customFormat="1" ht="41.25" customHeight="1" thickBot="1">
-      <c r="A27" s="131"/>
-      <c r="B27" s="146"/>
-      <c r="C27" s="146"/>
+      <c r="A27" s="101"/>
+      <c r="B27" s="147"/>
+      <c r="C27" s="147"/>
       <c r="D27" s="75" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E27" s="75" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F27" s="87" t="s">
         <v>14</v>
@@ -21104,14 +21114,14 @@
       <c r="GP27" s="51"/>
     </row>
     <row r="28" spans="1:198" s="33" customFormat="1" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A28" s="131"/>
-      <c r="B28" s="146"/>
-      <c r="C28" s="146"/>
+      <c r="A28" s="101"/>
+      <c r="B28" s="147"/>
+      <c r="C28" s="147"/>
       <c r="D28" s="75" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E28" s="75" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F28" s="87" t="s">
         <v>14</v>
@@ -21312,14 +21322,14 @@
       <c r="GP28" s="34"/>
     </row>
     <row r="29" spans="1:198" s="52" customFormat="1" ht="41.25" customHeight="1" thickBot="1">
-      <c r="A29" s="132"/>
-      <c r="B29" s="138"/>
-      <c r="C29" s="138"/>
+      <c r="A29" s="102"/>
+      <c r="B29" s="135"/>
+      <c r="C29" s="135"/>
       <c r="D29" s="75" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E29" s="75" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F29" s="87" t="s">
         <v>14</v>
@@ -21720,20 +21730,20 @@
       <c r="GP30" s="51"/>
     </row>
     <row r="31" spans="1:198" s="52" customFormat="1" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A31" s="130">
+      <c r="A31" s="100">
         <v>41</v>
       </c>
-      <c r="B31" s="137" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="137" t="s">
-        <v>112</v>
+      <c r="B31" s="134" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="134" t="s">
+        <v>110</v>
       </c>
       <c r="D31" s="75" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E31" s="75" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F31" s="87" t="s">
         <v>14</v>
@@ -21934,14 +21944,14 @@
       <c r="GP31" s="51"/>
     </row>
     <row r="32" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A32" s="131"/>
-      <c r="B32" s="146"/>
-      <c r="C32" s="146"/>
+      <c r="A32" s="101"/>
+      <c r="B32" s="147"/>
+      <c r="C32" s="147"/>
       <c r="D32" s="75" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E32" s="75" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F32" s="87" t="s">
         <v>14</v>
@@ -22142,14 +22152,14 @@
       <c r="GP32" s="34"/>
     </row>
     <row r="33" spans="1:198" s="33" customFormat="1" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A33" s="131"/>
-      <c r="B33" s="146"/>
-      <c r="C33" s="146"/>
+      <c r="A33" s="101"/>
+      <c r="B33" s="147"/>
+      <c r="C33" s="147"/>
       <c r="D33" s="75" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E33" s="75" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F33" s="87" t="s">
         <v>14</v>
@@ -22350,14 +22360,14 @@
       <c r="GP33" s="34"/>
     </row>
     <row r="34" spans="1:198" s="52" customFormat="1" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A34" s="131"/>
-      <c r="B34" s="146"/>
-      <c r="C34" s="146"/>
+      <c r="A34" s="101"/>
+      <c r="B34" s="147"/>
+      <c r="C34" s="147"/>
       <c r="D34" s="75" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E34" s="75" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F34" s="87" t="s">
         <v>14</v>
@@ -22558,14 +22568,14 @@
       <c r="GP34" s="51"/>
     </row>
     <row r="35" spans="1:198" s="33" customFormat="1" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A35" s="131"/>
-      <c r="B35" s="146"/>
-      <c r="C35" s="146"/>
+      <c r="A35" s="101"/>
+      <c r="B35" s="147"/>
+      <c r="C35" s="147"/>
       <c r="D35" s="75" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E35" s="75" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F35" s="87" t="s">
         <v>14</v>
@@ -22766,14 +22776,14 @@
       <c r="GP35" s="34"/>
     </row>
     <row r="36" spans="1:198" s="52" customFormat="1" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A36" s="131"/>
-      <c r="B36" s="146"/>
-      <c r="C36" s="146"/>
+      <c r="A36" s="101"/>
+      <c r="B36" s="147"/>
+      <c r="C36" s="147"/>
       <c r="D36" s="75" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E36" s="75" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F36" s="87" t="s">
         <v>14</v>
@@ -22974,14 +22984,14 @@
       <c r="GP36" s="51"/>
     </row>
     <row r="37" spans="1:198" s="33" customFormat="1" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A37" s="131"/>
-      <c r="B37" s="146"/>
-      <c r="C37" s="146"/>
+      <c r="A37" s="101"/>
+      <c r="B37" s="147"/>
+      <c r="C37" s="147"/>
       <c r="D37" s="75" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E37" s="75" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F37" s="87" t="s">
         <v>14</v>
@@ -23182,14 +23192,14 @@
       <c r="GP37" s="34"/>
     </row>
     <row r="38" spans="1:198" s="52" customFormat="1" ht="41.25" customHeight="1" thickBot="1">
-      <c r="A38" s="131"/>
-      <c r="B38" s="146"/>
-      <c r="C38" s="146"/>
+      <c r="A38" s="101"/>
+      <c r="B38" s="147"/>
+      <c r="C38" s="147"/>
       <c r="D38" s="75" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E38" s="75" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F38" s="87" t="s">
         <v>14</v>
@@ -23390,14 +23400,14 @@
       <c r="GP38" s="51"/>
     </row>
     <row r="39" spans="1:198" s="33" customFormat="1" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A39" s="131"/>
-      <c r="B39" s="146"/>
-      <c r="C39" s="146"/>
+      <c r="A39" s="101"/>
+      <c r="B39" s="147"/>
+      <c r="C39" s="147"/>
       <c r="D39" s="75" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E39" s="75" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F39" s="87" t="s">
         <v>14</v>
@@ -23598,14 +23608,14 @@
       <c r="GP39" s="34"/>
     </row>
     <row r="40" spans="1:198" s="52" customFormat="1" ht="41.25" customHeight="1" thickBot="1">
-      <c r="A40" s="132"/>
-      <c r="B40" s="138"/>
-      <c r="C40" s="138"/>
+      <c r="A40" s="102"/>
+      <c r="B40" s="135"/>
+      <c r="C40" s="135"/>
       <c r="D40" s="75" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E40" s="75" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F40" s="87" t="s">
         <v>14</v>
@@ -24006,20 +24016,20 @@
       <c r="GP41" s="51"/>
     </row>
     <row r="42" spans="1:198" s="41" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A42" s="130">
+      <c r="A42" s="100">
         <v>42</v>
       </c>
-      <c r="B42" s="137" t="s">
-        <v>113</v>
-      </c>
-      <c r="C42" s="137" t="s">
-        <v>109</v>
+      <c r="B42" s="134" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="134" t="s">
+        <v>107</v>
       </c>
       <c r="D42" s="75" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E42" s="75" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F42" s="87" t="s">
         <v>14</v>
@@ -24220,14 +24230,14 @@
       <c r="GP42" s="40"/>
     </row>
     <row r="43" spans="1:198" s="41" customFormat="1" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A43" s="131"/>
-      <c r="B43" s="146"/>
-      <c r="C43" s="146"/>
+      <c r="A43" s="101"/>
+      <c r="B43" s="147"/>
+      <c r="C43" s="147"/>
       <c r="D43" s="75" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E43" s="75" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F43" s="87" t="s">
         <v>14</v>
@@ -24428,14 +24438,14 @@
       <c r="GP43" s="40"/>
     </row>
     <row r="44" spans="1:198" s="52" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A44" s="131"/>
-      <c r="B44" s="146"/>
-      <c r="C44" s="146"/>
+      <c r="A44" s="101"/>
+      <c r="B44" s="147"/>
+      <c r="C44" s="147"/>
       <c r="D44" s="75" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E44" s="75" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F44" s="87" t="s">
         <v>14</v>
@@ -24636,14 +24646,14 @@
       <c r="GP44" s="51"/>
     </row>
     <row r="45" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A45" s="131"/>
-      <c r="B45" s="146"/>
-      <c r="C45" s="146"/>
+      <c r="A45" s="101"/>
+      <c r="B45" s="147"/>
+      <c r="C45" s="147"/>
       <c r="D45" s="75" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E45" s="75" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F45" s="87" t="s">
         <v>14</v>
@@ -24844,14 +24854,14 @@
       <c r="GP45" s="34"/>
     </row>
     <row r="46" spans="1:198" s="41" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A46" s="131"/>
-      <c r="B46" s="146"/>
-      <c r="C46" s="146"/>
+      <c r="A46" s="101"/>
+      <c r="B46" s="147"/>
+      <c r="C46" s="147"/>
       <c r="D46" s="75" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E46" s="75" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F46" s="87" t="s">
         <v>14</v>
@@ -25052,14 +25062,14 @@
       <c r="GP46" s="40"/>
     </row>
     <row r="47" spans="1:198" s="41" customFormat="1" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A47" s="131"/>
-      <c r="B47" s="146"/>
-      <c r="C47" s="146"/>
+      <c r="A47" s="101"/>
+      <c r="B47" s="147"/>
+      <c r="C47" s="147"/>
       <c r="D47" s="75" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E47" s="75" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F47" s="87" t="s">
         <v>14</v>
@@ -25260,14 +25270,14 @@
       <c r="GP47" s="40"/>
     </row>
     <row r="48" spans="1:198" s="52" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A48" s="131"/>
-      <c r="B48" s="146"/>
-      <c r="C48" s="146"/>
+      <c r="A48" s="101"/>
+      <c r="B48" s="147"/>
+      <c r="C48" s="147"/>
       <c r="D48" s="75" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E48" s="75" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F48" s="87" t="s">
         <v>14</v>
@@ -25468,14 +25478,14 @@
       <c r="GP48" s="51"/>
     </row>
     <row r="49" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A49" s="132"/>
-      <c r="B49" s="138"/>
-      <c r="C49" s="138"/>
+      <c r="A49" s="102"/>
+      <c r="B49" s="135"/>
+      <c r="C49" s="135"/>
       <c r="D49" s="75" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E49" s="75" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F49" s="87" t="s">
         <v>14</v>
@@ -25876,20 +25886,20 @@
       <c r="GP50" s="51"/>
     </row>
     <row r="51" spans="1:198" s="52" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A51" s="130">
+      <c r="A51" s="100">
         <v>43</v>
       </c>
-      <c r="B51" s="137" t="s">
-        <v>115</v>
-      </c>
-      <c r="C51" s="137" t="s">
-        <v>110</v>
+      <c r="B51" s="134" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" s="134" t="s">
+        <v>108</v>
       </c>
       <c r="D51" s="75" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E51" s="75" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F51" s="87" t="s">
         <v>14</v>
@@ -26090,14 +26100,14 @@
       <c r="GP51" s="51"/>
     </row>
     <row r="52" spans="1:198" s="33" customFormat="1" ht="41.25" customHeight="1" thickBot="1">
-      <c r="A52" s="131"/>
-      <c r="B52" s="146"/>
-      <c r="C52" s="146"/>
+      <c r="A52" s="101"/>
+      <c r="B52" s="147"/>
+      <c r="C52" s="147"/>
       <c r="D52" s="75" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E52" s="75" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F52" s="87" t="s">
         <v>14</v>
@@ -26298,14 +26308,14 @@
       <c r="GP52" s="34"/>
     </row>
     <row r="53" spans="1:198" s="33" customFormat="1" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A53" s="131"/>
-      <c r="B53" s="146"/>
-      <c r="C53" s="146"/>
+      <c r="A53" s="101"/>
+      <c r="B53" s="147"/>
+      <c r="C53" s="147"/>
       <c r="D53" s="75" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E53" s="75" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F53" s="87" t="s">
         <v>14</v>
@@ -26506,14 +26516,14 @@
       <c r="GP53" s="34"/>
     </row>
     <row r="54" spans="1:198" s="52" customFormat="1" ht="41.25" customHeight="1" thickBot="1">
-      <c r="A54" s="131"/>
-      <c r="B54" s="146"/>
-      <c r="C54" s="146"/>
+      <c r="A54" s="101"/>
+      <c r="B54" s="147"/>
+      <c r="C54" s="147"/>
       <c r="D54" s="75" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E54" s="75" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F54" s="87" t="s">
         <v>14</v>
@@ -26714,14 +26724,14 @@
       <c r="GP54" s="51"/>
     </row>
     <row r="55" spans="1:198" s="33" customFormat="1" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A55" s="131"/>
-      <c r="B55" s="146"/>
-      <c r="C55" s="146"/>
+      <c r="A55" s="101"/>
+      <c r="B55" s="147"/>
+      <c r="C55" s="147"/>
       <c r="D55" s="75" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E55" s="75" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F55" s="87" t="s">
         <v>14</v>
@@ -26922,14 +26932,14 @@
       <c r="GP55" s="34"/>
     </row>
     <row r="56" spans="1:198" s="52" customFormat="1" ht="41.25" customHeight="1" thickBot="1">
-      <c r="A56" s="131"/>
-      <c r="B56" s="146"/>
-      <c r="C56" s="146"/>
+      <c r="A56" s="101"/>
+      <c r="B56" s="147"/>
+      <c r="C56" s="147"/>
       <c r="D56" s="75" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E56" s="75" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F56" s="87" t="s">
         <v>14</v>
@@ -27130,14 +27140,14 @@
       <c r="GP56" s="51"/>
     </row>
     <row r="57" spans="1:198" s="52" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A57" s="131"/>
-      <c r="B57" s="146"/>
-      <c r="C57" s="146"/>
+      <c r="A57" s="101"/>
+      <c r="B57" s="147"/>
+      <c r="C57" s="147"/>
       <c r="D57" s="75" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E57" s="75" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F57" s="87" t="s">
         <v>14</v>
@@ -27338,14 +27348,14 @@
       <c r="GP57" s="51"/>
     </row>
     <row r="58" spans="1:198" s="33" customFormat="1" ht="41.25" customHeight="1" thickBot="1">
-      <c r="A58" s="131"/>
-      <c r="B58" s="146"/>
-      <c r="C58" s="146"/>
+      <c r="A58" s="101"/>
+      <c r="B58" s="147"/>
+      <c r="C58" s="147"/>
       <c r="D58" s="75" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E58" s="75" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F58" s="87" t="s">
         <v>14</v>
@@ -27546,14 +27556,14 @@
       <c r="GP58" s="34"/>
     </row>
     <row r="59" spans="1:198" s="33" customFormat="1" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A59" s="131"/>
-      <c r="B59" s="146"/>
-      <c r="C59" s="146"/>
+      <c r="A59" s="101"/>
+      <c r="B59" s="147"/>
+      <c r="C59" s="147"/>
       <c r="D59" s="75" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E59" s="75" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F59" s="87" t="s">
         <v>14</v>
@@ -27754,14 +27764,14 @@
       <c r="GP59" s="34"/>
     </row>
     <row r="60" spans="1:198" s="52" customFormat="1" ht="41.25" customHeight="1" thickBot="1">
-      <c r="A60" s="131"/>
-      <c r="B60" s="146"/>
-      <c r="C60" s="146"/>
+      <c r="A60" s="101"/>
+      <c r="B60" s="147"/>
+      <c r="C60" s="147"/>
       <c r="D60" s="75" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E60" s="75" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F60" s="87" t="s">
         <v>14</v>
@@ -27962,14 +27972,14 @@
       <c r="GP60" s="51"/>
     </row>
     <row r="61" spans="1:198" s="33" customFormat="1" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A61" s="131"/>
-      <c r="B61" s="146"/>
-      <c r="C61" s="146"/>
+      <c r="A61" s="101"/>
+      <c r="B61" s="147"/>
+      <c r="C61" s="147"/>
       <c r="D61" s="75" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E61" s="75" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F61" s="87" t="s">
         <v>14</v>
@@ -28170,14 +28180,14 @@
       <c r="GP61" s="34"/>
     </row>
     <row r="62" spans="1:198" s="52" customFormat="1" ht="41.25" customHeight="1" thickBot="1">
-      <c r="A62" s="131"/>
-      <c r="B62" s="146"/>
-      <c r="C62" s="146"/>
+      <c r="A62" s="101"/>
+      <c r="B62" s="147"/>
+      <c r="C62" s="147"/>
       <c r="D62" s="75" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E62" s="75" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F62" s="87" t="s">
         <v>14</v>
@@ -28378,14 +28388,14 @@
       <c r="GP62" s="51"/>
     </row>
     <row r="63" spans="1:198" s="41" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A63" s="131"/>
-      <c r="B63" s="146"/>
-      <c r="C63" s="146"/>
+      <c r="A63" s="101"/>
+      <c r="B63" s="147"/>
+      <c r="C63" s="147"/>
       <c r="D63" s="75" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E63" s="75" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F63" s="87" t="s">
         <v>14</v>
@@ -28586,14 +28596,14 @@
       <c r="GP63" s="40"/>
     </row>
     <row r="64" spans="1:198" s="41" customFormat="1" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A64" s="131"/>
-      <c r="B64" s="146"/>
-      <c r="C64" s="146"/>
+      <c r="A64" s="101"/>
+      <c r="B64" s="147"/>
+      <c r="C64" s="147"/>
       <c r="D64" s="75" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E64" s="75" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F64" s="87" t="s">
         <v>14</v>
@@ -28794,14 +28804,14 @@
       <c r="GP64" s="40"/>
     </row>
     <row r="65" spans="1:198" s="52" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A65" s="131"/>
-      <c r="B65" s="146"/>
-      <c r="C65" s="146"/>
+      <c r="A65" s="101"/>
+      <c r="B65" s="147"/>
+      <c r="C65" s="147"/>
       <c r="D65" s="75" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E65" s="75" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F65" s="87" t="s">
         <v>14</v>
@@ -29002,14 +29012,14 @@
       <c r="GP65" s="51"/>
     </row>
     <row r="66" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A66" s="132"/>
-      <c r="B66" s="138"/>
-      <c r="C66" s="138"/>
+      <c r="A66" s="102"/>
+      <c r="B66" s="135"/>
+      <c r="C66" s="135"/>
       <c r="D66" s="75" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E66" s="75" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F66" s="87" t="s">
         <v>14</v>
@@ -29410,20 +29420,20 @@
       <c r="GP67" s="51"/>
     </row>
     <row r="68" spans="1:198" s="41" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A68" s="130">
+      <c r="A68" s="100">
         <v>44</v>
       </c>
-      <c r="B68" s="137" t="s">
-        <v>119</v>
-      </c>
-      <c r="C68" s="137" t="s">
-        <v>109</v>
+      <c r="B68" s="134" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68" s="134" t="s">
+        <v>107</v>
       </c>
       <c r="D68" s="75" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E68" s="75" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F68" s="87" t="s">
         <v>14</v>
@@ -29624,14 +29634,14 @@
       <c r="GP68" s="40"/>
     </row>
     <row r="69" spans="1:198" s="41" customFormat="1" ht="53.25" customHeight="1" thickBot="1">
-      <c r="A69" s="131"/>
-      <c r="B69" s="146"/>
-      <c r="C69" s="146"/>
+      <c r="A69" s="101"/>
+      <c r="B69" s="147"/>
+      <c r="C69" s="147"/>
       <c r="D69" s="75" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E69" s="75" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F69" s="87" t="s">
         <v>14</v>
@@ -30036,22 +30046,22 @@
         <v>45</v>
       </c>
       <c r="B71" s="82" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C71" s="82" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D71" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="E71" s="75" t="s">
         <v>123</v>
-      </c>
-      <c r="E71" s="75" t="s">
-        <v>125</v>
       </c>
       <c r="F71" s="87" t="s">
         <v>14</v>
       </c>
       <c r="G71" s="83" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H71" s="40"/>
       <c r="I71" s="40"/>
@@ -30446,20 +30456,20 @@
       <c r="GP72" s="51"/>
     </row>
     <row r="73" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A73" s="133">
+      <c r="A73" s="143">
         <v>46</v>
       </c>
-      <c r="B73" s="106" t="s">
-        <v>126</v>
-      </c>
-      <c r="C73" s="137" t="s">
-        <v>127</v>
-      </c>
-      <c r="D73" s="106" t="s">
-        <v>136</v>
-      </c>
-      <c r="E73" s="106" t="s">
-        <v>83</v>
+      <c r="B73" s="103" t="s">
+        <v>124</v>
+      </c>
+      <c r="C73" s="134" t="s">
+        <v>125</v>
+      </c>
+      <c r="D73" s="103" t="s">
+        <v>134</v>
+      </c>
+      <c r="E73" s="103" t="s">
+        <v>81</v>
       </c>
       <c r="F73" s="87" t="s">
         <v>14</v>
@@ -30660,11 +30670,11 @@
       <c r="GP73" s="34"/>
     </row>
     <row r="74" spans="1:198" s="33" customFormat="1" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A74" s="134"/>
-      <c r="B74" s="129"/>
-      <c r="C74" s="146"/>
-      <c r="D74" s="129"/>
-      <c r="E74" s="129"/>
+      <c r="A74" s="144"/>
+      <c r="B74" s="105"/>
+      <c r="C74" s="147"/>
+      <c r="D74" s="105"/>
+      <c r="E74" s="105"/>
       <c r="F74" s="88"/>
       <c r="G74" s="84"/>
       <c r="H74" s="34"/>
@@ -30967,20 +30977,20 @@
       <c r="DA75" s="8"/>
     </row>
     <row r="76" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A76" s="105">
+      <c r="A76" s="133">
         <v>47</v>
       </c>
-      <c r="B76" s="106" t="s">
-        <v>84</v>
-      </c>
-      <c r="C76" s="137" t="s">
-        <v>127</v>
-      </c>
-      <c r="D76" s="106" t="s">
-        <v>137</v>
-      </c>
-      <c r="E76" s="106" t="s">
-        <v>85</v>
+      <c r="B76" s="103" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" s="134" t="s">
+        <v>125</v>
+      </c>
+      <c r="D76" s="103" t="s">
+        <v>135</v>
+      </c>
+      <c r="E76" s="103" t="s">
+        <v>83</v>
       </c>
       <c r="F76" s="87" t="s">
         <v>14</v>
@@ -31181,11 +31191,11 @@
       <c r="GP76" s="34"/>
     </row>
     <row r="77" spans="1:198" s="33" customFormat="1" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A77" s="99"/>
-      <c r="B77" s="100"/>
-      <c r="C77" s="146"/>
-      <c r="D77" s="100"/>
-      <c r="E77" s="100"/>
+      <c r="A77" s="106"/>
+      <c r="B77" s="104"/>
+      <c r="C77" s="147"/>
+      <c r="D77" s="104"/>
+      <c r="E77" s="104"/>
       <c r="F77" s="88"/>
       <c r="G77" s="84"/>
       <c r="H77" s="34"/>
@@ -31488,20 +31498,20 @@
       <c r="DA78" s="8"/>
     </row>
     <row r="79" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A79" s="105">
+      <c r="A79" s="133">
         <v>48</v>
       </c>
-      <c r="B79" s="106" t="s">
-        <v>128</v>
-      </c>
-      <c r="C79" s="137" t="s">
+      <c r="B79" s="103" t="s">
+        <v>126</v>
+      </c>
+      <c r="C79" s="134" t="s">
+        <v>125</v>
+      </c>
+      <c r="D79" s="103" t="s">
+        <v>136</v>
+      </c>
+      <c r="E79" s="103" t="s">
         <v>127</v>
-      </c>
-      <c r="D79" s="106" t="s">
-        <v>138</v>
-      </c>
-      <c r="E79" s="106" t="s">
-        <v>129</v>
       </c>
       <c r="F79" s="87" t="s">
         <v>14</v>
@@ -31702,11 +31712,11 @@
       <c r="GP79" s="34"/>
     </row>
     <row r="80" spans="1:198" s="33" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A80" s="99"/>
-      <c r="B80" s="100"/>
-      <c r="C80" s="146"/>
-      <c r="D80" s="100"/>
-      <c r="E80" s="100"/>
+      <c r="A80" s="106"/>
+      <c r="B80" s="104"/>
+      <c r="C80" s="147"/>
+      <c r="D80" s="104"/>
+      <c r="E80" s="104"/>
       <c r="F80" s="93"/>
       <c r="G80" s="86"/>
       <c r="H80" s="34"/>
@@ -31903,11 +31913,26 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="C22:C29"/>
+    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C51:C66"/>
+    <mergeCell ref="B51:B66"/>
+    <mergeCell ref="A51:A66"/>
+    <mergeCell ref="C42:C49"/>
+    <mergeCell ref="B42:B49"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
     <mergeCell ref="E1:E4"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="A73:A74"/>
@@ -31924,27 +31949,26 @@
     <mergeCell ref="B31:B40"/>
     <mergeCell ref="A31:A40"/>
     <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="C22:C29"/>
-    <mergeCell ref="B22:B29"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="C51:C66"/>
-    <mergeCell ref="B51:B66"/>
-    <mergeCell ref="A51:A66"/>
-    <mergeCell ref="C42:C49"/>
-    <mergeCell ref="B42:B49"/>
-    <mergeCell ref="A42:A49"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/BOARD GAME GENERATOR-CT-01.05.xlsx
+++ b/BOARD GAME GENERATOR-CT-01.05.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" codeName="EstaPasta_de_trabalho" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="2475" windowWidth="18915" windowHeight="6105" tabRatio="528" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="2535" windowWidth="18915" windowHeight="1935" tabRatio="528" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="184">
   <si>
     <t>CAMPO</t>
   </si>
@@ -95,16 +95,10 @@
     <t>Iniciar Jogo Escolhendo o Nome dos Peões</t>
   </si>
   <si>
-    <t>Exibir Tabuleiro</t>
-  </si>
-  <si>
     <t>Testar o Modulo "Iniciar Jogo"</t>
   </si>
   <si>
     <t>Iniciar Jogo</t>
-  </si>
-  <si>
-    <t>Jogo Já Cadastrado</t>
   </si>
   <si>
     <t>Opção selecionada com sucesso</t>
@@ -126,9 +120,6 @@
   </si>
   <si>
     <t>O sistema inicia o jogo e exibe o tabuleiro de acordo com o jogo escolhido</t>
-  </si>
-  <si>
-    <t>Jogo Já Cadastrado Com Tamanho 3x3</t>
   </si>
   <si>
     <t>*Nome do jogo: JOGO2
@@ -178,17 +169,6 @@
   </si>
   <si>
     <t>Iniciar Jogo Escolhendo Cores iguais dos Peões</t>
-  </si>
-  <si>
-    <t>Jogo Já Cadastrado Com Tamanho 6x6</t>
-  </si>
-  <si>
-    <t>Jogo Já Cadastrado Com Tamanho 8x8</t>
-  </si>
-  <si>
-    <t>*Nome do jogo: JOGO5
-Cores dos peões: Amarelo, Verde, Vermelho
-Nome dos peões: João, Roberto, Carlos</t>
   </si>
   <si>
     <t>*Nome do jogo: JOGO3
@@ -490,12 +470,6 @@
     <t>Exibir plano de fundo com formato  .png</t>
   </si>
   <si>
-    <t>Jogo Já Cadastrado Com formato de imagem .jpeg</t>
-  </si>
-  <si>
-    <t>Jogo Já Cadastrado Com formato de imagem .png</t>
-  </si>
-  <si>
     <t>*Nome do jogo: JOGO7
 Cores dos peões: Aleatório
 Nome dos peões: Aleatório</t>
@@ -528,30 +502,6 @@
     <t>*NOME: JOGO3
 Quantidade de casas: 8X8
 *Quantidade de peões: 3
-*Quantidade de casas especiais: 2
-Local das casas decimais: 2, 6
-Plano de fundo: Escolher Aleatóriamente</t>
-  </si>
-  <si>
-    <t>*NOME: JOGO1
-Quantidade de casas: 3X3
-*Quantidade de peões: 2
-*Quantidade de casas especiais: 2
-Local das casas decimais: 2, 6
-Plano de fundo: Escolher Aleatóriamente</t>
-  </si>
-  <si>
-    <t>*NOME: JOGO2
-Quantidade de casas: 4X4
-*Quantidade de peões: 4
-*Quantidade de casas especiais: 2
-Local das casas decimais: 2, 6
-Plano de fundo: Escolher Aleatóriamente</t>
-  </si>
-  <si>
-    <t>*NOME: JOGO3
-Quantidade de casas: 8X8
-*Quantidade de peões: 5
 *Quantidade de casas especiais: 2
 Local das casas decimais: 2, 6
 Plano de fundo: Escolher Aleatóriamente</t>
@@ -605,9 +555,6 @@
     <t>Exibir plano de fundo com formato default</t>
   </si>
   <si>
-    <t>Jogo Já Cadastrado Com formato de imagem default</t>
-  </si>
-  <si>
     <t>*Nome do jogo: JOGO8
 Cores dos peões: Aleatório
 Nome dos peões: Aleatório</t>
@@ -640,15 +587,88 @@
   <si>
     <t>O sistema altera o jogo com sucesso</t>
   </si>
+  <si>
+    <t>*NOME: JOGO10
+Quantidade de casas: 3X3
+*Quantidade de peões: 2
+*Quantidade de casas especiais: 2
+Local das casas decimais: 2, 6
+Plano de fundo: Escolher Aleatóriamente</t>
+  </si>
+  <si>
+    <t>*NOME: JOGO11
+Quantidade de casas: 4X4
+*Quantidade de peões: 4
+*Quantidade de casas especiais: 2
+Local das casas decimais: 2, 6
+Plano de fundo: Escolher Aleatóriamente</t>
+  </si>
+  <si>
+    <t>*NOME: JOGO12
+Quantidade de casas: 8X8
+*Quantidade de peões: 5
+*Quantidade de casas especiais: 2
+Local das casas decimais: 2, 6
+Plano de fundo: Escolher Aleatóriamente</t>
+  </si>
+  <si>
+    <t>QUANTIDADE DE PEÕES INCORRETA</t>
+  </si>
+  <si>
+    <t>CADASTRAR JOGO COM 6 PEÕES</t>
+  </si>
+  <si>
+    <t>JOGO NÃO CADASTRADO</t>
+  </si>
+  <si>
+    <t>Jogo Já Cadastrado no Modulo Gerenciar</t>
+  </si>
+  <si>
+    <t>Jogo Já Cadastrado Com Tamanho 3x3 no Modulo Gerenciar</t>
+  </si>
+  <si>
+    <t>Jogo Já Cadastrado Com Tamanho 8x8 no Modulo Gerenciar</t>
+  </si>
+  <si>
+    <t>Jogo Já Cadastrado Com formato de imagem .jpeg no Modulo Gerenciar</t>
+  </si>
+  <si>
+    <t>Jogo Já Cadastrado Com formato de imagem .png no Modulo Gerenciar</t>
+  </si>
+  <si>
+    <t>Jogo Já Cadastrado Com formato de imagem default no Modulo Gerenciar</t>
+  </si>
+  <si>
+    <t>*Nome do jogo: Escolher aleatóriamente
+Cores dos peões: Aleatório
+Nome dos peões: Aleatório</t>
+  </si>
+  <si>
+    <t>Jogo Já Cadastrado Com Tamanho 4x4 no Modulo Gerenciar</t>
+  </si>
+  <si>
+    <t>*Nome do jogo: JOGO04
+Cores dos peões: Amarelo, Verde, Vermelho
+Nome dos peões: João, Roberto, Carlos</t>
+  </si>
+  <si>
+    <t>Exibir Tabuleiro Tamanho 3x3</t>
+  </si>
+  <si>
+    <t>Exibir Tabuleiro Tamanho 4x4</t>
+  </si>
+  <si>
+    <t>Exibir Tabuleiro Tamanho 8x8</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\C\T000"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1402,26 +1422,11 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1434,6 +1439,15 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1498,11 +1512,29 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1530,18 +1562,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="27" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1960,16 +1980,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -1980,7 +2000,7 @@
       <c r="I3" s="11"/>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="12"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -1991,7 +2011,7 @@
       <c r="I4" s="13"/>
       <c r="J4" s="17"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="12"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -2002,7 +2022,7 @@
       <c r="I5" s="13"/>
       <c r="J5" s="17"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="12"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -2013,7 +2033,7 @@
       <c r="I6" s="13"/>
       <c r="J6" s="17"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -2024,7 +2044,7 @@
       <c r="I7" s="13"/>
       <c r="J7" s="17"/>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="12"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -2035,7 +2055,7 @@
       <c r="I8" s="13"/>
       <c r="J8" s="17"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -2046,7 +2066,7 @@
       <c r="I9" s="13"/>
       <c r="J9" s="17"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -2057,7 +2077,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="2:10" ht="13.5" thickBot="1">
+    <row r="11" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="12"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -2068,7 +2088,7 @@
       <c r="I11" s="13"/>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="12"/>
       <c r="C12" s="13"/>
       <c r="D12" s="19"/>
@@ -2079,7 +2099,7 @@
       <c r="I12" s="13"/>
       <c r="J12" s="17"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="12"/>
       <c r="C13" s="13"/>
       <c r="D13" s="22"/>
@@ -2092,7 +2112,7 @@
       <c r="I13" s="13"/>
       <c r="J13" s="17"/>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="12"/>
       <c r="C14" s="13"/>
       <c r="D14" s="22"/>
@@ -2103,7 +2123,7 @@
       <c r="I14" s="13"/>
       <c r="J14" s="17"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="12"/>
       <c r="C15" s="13"/>
       <c r="D15" s="22"/>
@@ -2114,7 +2134,7 @@
       <c r="I15" s="13"/>
       <c r="J15" s="17"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="12"/>
       <c r="C16" s="13"/>
       <c r="D16" s="22"/>
@@ -2127,7 +2147,7 @@
       <c r="I16" s="13"/>
       <c r="J16" s="17"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="12"/>
       <c r="C17" s="13"/>
       <c r="D17" s="22"/>
@@ -2138,20 +2158,20 @@
       <c r="I17" s="13"/>
       <c r="J17" s="17"/>
     </row>
-    <row r="18" spans="2:10" ht="14.25">
+    <row r="18" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B18" s="12"/>
       <c r="C18" s="13"/>
       <c r="D18" s="22"/>
       <c r="E18" s="27"/>
       <c r="F18" s="28" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="G18" s="27"/>
       <c r="H18" s="23"/>
       <c r="I18" s="13"/>
       <c r="J18" s="17"/>
     </row>
-    <row r="19" spans="2:10" ht="14.25">
+    <row r="19" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B19" s="12"/>
       <c r="C19" s="13"/>
       <c r="D19" s="22"/>
@@ -2162,7 +2182,7 @@
       <c r="I19" s="13"/>
       <c r="J19" s="17"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="12"/>
       <c r="C20" s="13"/>
       <c r="D20" s="22"/>
@@ -2175,7 +2195,7 @@
       <c r="I20" s="13"/>
       <c r="J20" s="17"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="12"/>
       <c r="C21" s="13"/>
       <c r="D21" s="22"/>
@@ -2188,7 +2208,7 @@
       <c r="I21" s="13"/>
       <c r="J21" s="17"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="12"/>
       <c r="C22" s="13"/>
       <c r="D22" s="22"/>
@@ -2199,7 +2219,7 @@
       <c r="I22" s="13"/>
       <c r="J22" s="17"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="12"/>
       <c r="C23" s="13"/>
       <c r="D23" s="22"/>
@@ -2210,7 +2230,7 @@
       <c r="I23" s="13"/>
       <c r="J23" s="17"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="12"/>
       <c r="C24" s="13"/>
       <c r="D24" s="22"/>
@@ -2221,7 +2241,7 @@
       <c r="I24" s="13"/>
       <c r="J24" s="17"/>
     </row>
-    <row r="25" spans="2:10" ht="13.5" thickBot="1">
+    <row r="25" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="12"/>
       <c r="C25" s="13"/>
       <c r="D25" s="24"/>
@@ -2232,7 +2252,7 @@
       <c r="I25" s="13"/>
       <c r="J25" s="17"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="12"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -2243,7 +2263,7 @@
       <c r="I26" s="13"/>
       <c r="J26" s="17"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="12"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
@@ -2254,7 +2274,7 @@
       <c r="I27" s="13"/>
       <c r="J27" s="17"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="12"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -2265,7 +2285,7 @@
       <c r="I28" s="13"/>
       <c r="J28" s="17"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="12"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
@@ -2276,7 +2296,7 @@
       <c r="I29" s="13"/>
       <c r="J29" s="17"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="12"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -2287,7 +2307,7 @@
       <c r="I30" s="13"/>
       <c r="J30" s="17"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="12"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
@@ -2298,7 +2318,7 @@
       <c r="I31" s="13"/>
       <c r="J31" s="17"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="12"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -2309,7 +2329,7 @@
       <c r="I32" s="13"/>
       <c r="J32" s="17"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" s="12"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
@@ -2320,7 +2340,7 @@
       <c r="I33" s="13"/>
       <c r="J33" s="17"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="12"/>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -2331,7 +2351,7 @@
       <c r="I34" s="13"/>
       <c r="J34" s="17"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
@@ -2354,14 +2374,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2370,15 +2390,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GP67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="27.5703125" style="1" customWidth="1"/>
@@ -2389,57 +2408,57 @@
     <col min="7" max="7" width="39" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29.25" customHeight="1" thickBot="1">
+    <row r="1" spans="1:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="115"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="118" t="s">
+      <c r="C1" s="113"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="121" t="s">
+      <c r="F1" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="111" t="s">
+      <c r="G1" s="109" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="22.5" customHeight="1" thickBot="1">
+    <row r="2" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="74"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="110"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="124" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="126" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="112"/>
+      <c r="B3" s="124" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="125"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="110"/>
     </row>
-    <row r="4" spans="1:7" ht="13.5" thickBot="1">
-      <c r="A4" s="125"/>
-      <c r="B4" s="129"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="113"/>
+    <row r="4" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="123"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="111"/>
     </row>
-    <row r="5" spans="1:7" ht="13.5" thickBot="1">
+    <row r="5" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="56"/>
       <c r="B5" s="57"/>
       <c r="C5" s="57"/>
@@ -2448,7 +2467,7 @@
       <c r="F5" s="59"/>
       <c r="G5" s="60"/>
     </row>
-    <row r="6" spans="1:7" ht="13.5" thickBot="1">
+    <row r="6" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="61" t="s">
         <v>6</v>
       </c>
@@ -2471,7 +2490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13.5" thickBot="1">
+    <row r="7" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31"/>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
@@ -2480,21 +2499,21 @@
       <c r="F7" s="35"/>
       <c r="G7" s="66"/>
     </row>
-    <row r="8" spans="1:7" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A8" s="106">
+    <row r="8" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="100">
         <v>1</v>
       </c>
-      <c r="B8" s="104" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="104" t="s">
+      <c r="B8" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="101" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E8" s="43" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F8" s="87" t="s">
         <v>14</v>
@@ -2503,24 +2522,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="88.5" customHeight="1" thickBot="1">
-      <c r="A9" s="106"/>
-      <c r="B9" s="104"/>
-      <c r="C9" s="104"/>
+    <row r="9" spans="1:7" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="100"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="101"/>
       <c r="D9" s="67" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E9" s="67" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="F9" s="87" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="G9" s="83" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="36" customFormat="1" ht="13.5" thickBot="1">
+    <row r="10" spans="1:7" s="36" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
@@ -2529,21 +2548,21 @@
       <c r="F10" s="35"/>
       <c r="G10" s="66"/>
     </row>
-    <row r="11" spans="1:7" s="36" customFormat="1" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A11" s="106">
+    <row r="11" spans="1:7" s="36" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="100">
         <v>2</v>
       </c>
-      <c r="B11" s="104" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="104" t="s">
+      <c r="B11" s="101" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="101" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F11" s="87" t="s">
         <v>14</v>
@@ -2552,24 +2571,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="36" customFormat="1" ht="85.5" customHeight="1" thickBot="1">
-      <c r="A12" s="106"/>
-      <c r="B12" s="104"/>
-      <c r="C12" s="104"/>
+    <row r="12" spans="1:7" s="36" customFormat="1" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="100"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="101"/>
       <c r="D12" s="67" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E12" s="67" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="F12" s="87" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G12" s="83" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="36" customFormat="1" ht="13.5" thickBot="1">
+    <row r="13" spans="1:7" s="36" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="31"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -2578,21 +2597,21 @@
       <c r="F13" s="35"/>
       <c r="G13" s="66"/>
     </row>
-    <row r="14" spans="1:7" s="36" customFormat="1" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A14" s="106">
+    <row r="14" spans="1:7" s="36" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="100">
         <v>3</v>
       </c>
-      <c r="B14" s="104" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="104" t="s">
+      <c r="B14" s="101" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="101" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F14" s="87" t="s">
         <v>14</v>
@@ -2601,24 +2620,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="36" customFormat="1" ht="77.25" thickBot="1">
-      <c r="A15" s="106"/>
-      <c r="B15" s="104"/>
-      <c r="C15" s="104"/>
+    <row r="15" spans="1:7" s="36" customFormat="1" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="100"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
       <c r="D15" s="67" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E15" s="67" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="F15" s="87" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G15" s="83" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="36" customFormat="1" ht="13.5" thickBot="1">
+    <row r="16" spans="1:7" s="36" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -2627,21 +2646,21 @@
       <c r="F16" s="35"/>
       <c r="G16" s="66"/>
     </row>
-    <row r="17" spans="1:7" s="36" customFormat="1" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A17" s="106">
+    <row r="17" spans="1:7" s="36" customFormat="1" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="100">
         <v>4</v>
       </c>
-      <c r="B17" s="104" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="104" t="s">
+      <c r="B17" s="101" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="101" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F17" s="87" t="s">
         <v>14</v>
@@ -2650,24 +2669,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="36" customFormat="1" ht="77.25" thickBot="1">
-      <c r="A18" s="106"/>
-      <c r="B18" s="104"/>
-      <c r="C18" s="104"/>
+    <row r="18" spans="1:7" s="36" customFormat="1" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="100"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="101"/>
       <c r="D18" s="67" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E18" s="67" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="F18" s="87" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="G18" s="83" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="36" customFormat="1" ht="13.5" thickBot="1">
+    <row r="19" spans="1:7" s="36" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31"/>
       <c r="B19" s="32"/>
       <c r="C19" s="32"/>
@@ -2676,21 +2695,21 @@
       <c r="F19" s="35"/>
       <c r="G19" s="66"/>
     </row>
-    <row r="20" spans="1:7" s="36" customFormat="1" ht="52.5" customHeight="1" thickBot="1">
-      <c r="A20" s="106">
+    <row r="20" spans="1:7" s="36" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="100">
         <v>5</v>
       </c>
-      <c r="B20" s="104" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="104" t="s">
+      <c r="B20" s="101" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="101" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E20" s="43" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>14</v>
@@ -2699,24 +2718,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="36" customFormat="1" ht="77.25" thickBot="1">
-      <c r="A21" s="106"/>
-      <c r="B21" s="104"/>
-      <c r="C21" s="104"/>
+    <row r="21" spans="1:7" s="36" customFormat="1" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="100"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="101"/>
       <c r="D21" s="67" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E21" s="67" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="F21" s="87" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="G21" s="83" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="36" customFormat="1" ht="13.5" thickBot="1">
+    <row r="22" spans="1:7" s="36" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="31"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -2725,21 +2744,21 @@
       <c r="F22" s="35"/>
       <c r="G22" s="66"/>
     </row>
-    <row r="23" spans="1:7" s="36" customFormat="1" ht="52.5" customHeight="1" thickBot="1">
-      <c r="A23" s="106">
+    <row r="23" spans="1:7" s="36" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="100">
         <v>6</v>
       </c>
-      <c r="B23" s="104" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="104" t="s">
+      <c r="B23" s="101" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="101" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E23" s="43" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F23" s="87" t="s">
         <v>14</v>
@@ -2748,24 +2767,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="36" customFormat="1" ht="77.25" thickBot="1">
-      <c r="A24" s="106"/>
-      <c r="B24" s="104"/>
-      <c r="C24" s="104"/>
+    <row r="24" spans="1:7" s="36" customFormat="1" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="100"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
       <c r="D24" s="67" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E24" s="67" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="F24" s="87" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="G24" s="83" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="36" customFormat="1" ht="13.5" thickBot="1">
+    <row r="25" spans="1:7" s="36" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="31"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -2774,21 +2793,21 @@
       <c r="F25" s="35"/>
       <c r="G25" s="66"/>
     </row>
-    <row r="26" spans="1:7" s="36" customFormat="1" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A26" s="106">
+    <row r="26" spans="1:7" s="36" customFormat="1" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="100">
         <v>7</v>
       </c>
-      <c r="B26" s="104" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="104" t="s">
+      <c r="B26" s="101" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="101" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="43" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E26" s="43" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F26" s="87" t="s">
         <v>14</v>
@@ -2797,24 +2816,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="36" customFormat="1" ht="64.5" thickBot="1">
-      <c r="A27" s="106"/>
-      <c r="B27" s="104"/>
-      <c r="C27" s="104"/>
+    <row r="27" spans="1:7" s="36" customFormat="1" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="100"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="101"/>
       <c r="D27" s="67" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E27" s="67" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="F27" s="87" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="G27" s="83" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="36" customFormat="1" ht="13.5" thickBot="1">
+    <row r="28" spans="1:7" s="36" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="31"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -2823,21 +2842,21 @@
       <c r="F28" s="35"/>
       <c r="G28" s="66"/>
     </row>
-    <row r="29" spans="1:7" s="36" customFormat="1" ht="51" customHeight="1" thickBot="1">
-      <c r="A29" s="106">
+    <row r="29" spans="1:7" s="36" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="100">
         <v>8</v>
       </c>
-      <c r="B29" s="104" t="s">
+      <c r="B29" s="101" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="104" t="s">
-        <v>67</v>
-      </c>
       <c r="D29" s="43" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E29" s="43" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F29" s="87" t="s">
         <v>14</v>
@@ -2846,24 +2865,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="36" customFormat="1" ht="77.25" thickBot="1">
-      <c r="A30" s="106"/>
-      <c r="B30" s="104"/>
-      <c r="C30" s="104"/>
+    <row r="30" spans="1:7" s="36" customFormat="1" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="100"/>
+      <c r="B30" s="101"/>
+      <c r="C30" s="101"/>
       <c r="D30" s="67" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E30" s="42" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F30" s="87" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="G30" s="83" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="36" customFormat="1" ht="13.5" thickBot="1">
+    <row r="31" spans="1:7" s="36" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="31"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -2872,21 +2891,21 @@
       <c r="F31" s="35"/>
       <c r="G31" s="66"/>
     </row>
-    <row r="32" spans="1:7" s="36" customFormat="1" ht="52.5" customHeight="1" thickBot="1">
-      <c r="A32" s="106">
+    <row r="32" spans="1:7" s="36" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="100">
         <v>9</v>
       </c>
-      <c r="B32" s="104" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="104" t="s">
-        <v>67</v>
+      <c r="B32" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="101" t="s">
+        <v>61</v>
       </c>
       <c r="D32" s="43" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E32" s="43" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F32" s="87" t="s">
         <v>14</v>
@@ -2895,24 +2914,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="36" customFormat="1" ht="77.25" thickBot="1">
-      <c r="A33" s="106"/>
-      <c r="B33" s="104"/>
-      <c r="C33" s="104"/>
+    <row r="33" spans="1:7" s="36" customFormat="1" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="100"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="101"/>
       <c r="D33" s="67" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F33" s="87" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="G33" s="83" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="36" customFormat="1" ht="13.5" thickBot="1">
+    <row r="34" spans="1:7" s="36" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="31"/>
       <c r="B34" s="32"/>
       <c r="C34" s="32"/>
@@ -2921,21 +2940,21 @@
       <c r="F34" s="35"/>
       <c r="G34" s="66"/>
     </row>
-    <row r="35" spans="1:7" s="36" customFormat="1" ht="39" customHeight="1" thickBot="1">
-      <c r="A35" s="132">
+    <row r="35" spans="1:7" s="36" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="108">
         <v>10</v>
       </c>
-      <c r="B35" s="104" t="s">
+      <c r="B35" s="101" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="101" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="104" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" s="46" t="s">
-        <v>69</v>
-      </c>
       <c r="E35" s="43" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F35" s="87" t="s">
         <v>14</v>
@@ -2944,39 +2963,39 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="36" customFormat="1" ht="90" thickBot="1">
-      <c r="A36" s="132"/>
-      <c r="B36" s="104"/>
-      <c r="C36" s="104"/>
+    <row r="36" spans="1:7" s="36" customFormat="1" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="108"/>
+      <c r="B36" s="101"/>
+      <c r="C36" s="101"/>
       <c r="D36" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="E36" s="46" t="s">
-        <v>76</v>
-      </c>
       <c r="F36" s="87" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="G36" s="83"/>
     </row>
-    <row r="37" spans="1:7" s="36" customFormat="1" ht="90" thickBot="1">
-      <c r="A37" s="132"/>
-      <c r="B37" s="104"/>
-      <c r="C37" s="104"/>
+    <row r="37" spans="1:7" s="36" customFormat="1" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="108"/>
+      <c r="B37" s="101"/>
+      <c r="C37" s="101"/>
       <c r="D37" s="47" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E37" s="97" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="F37" s="87" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="G37" s="83" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="36" customFormat="1" ht="13.5" thickBot="1">
+    <row r="38" spans="1:7" s="36" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="31"/>
       <c r="B38" s="32"/>
       <c r="C38" s="32"/>
@@ -2985,21 +3004,21 @@
       <c r="F38" s="35"/>
       <c r="G38" s="66"/>
     </row>
-    <row r="39" spans="1:7" s="36" customFormat="1" ht="54" customHeight="1" thickBot="1">
-      <c r="A39" s="106">
+    <row r="39" spans="1:7" s="36" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="100">
         <v>11</v>
       </c>
-      <c r="B39" s="104" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" s="104" t="s">
-        <v>68</v>
+      <c r="B39" s="101" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="101" t="s">
+        <v>62</v>
       </c>
       <c r="D39" s="43" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E39" s="43" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F39" s="87" t="s">
         <v>14</v>
@@ -3008,15 +3027,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="36" customFormat="1" ht="66.75" customHeight="1" thickBot="1">
-      <c r="A40" s="106"/>
-      <c r="B40" s="104"/>
-      <c r="C40" s="104"/>
+    <row r="40" spans="1:7" s="36" customFormat="1" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="100"/>
+      <c r="B40" s="101"/>
+      <c r="C40" s="101"/>
       <c r="D40" s="67" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E40" s="97" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F40" s="87" t="s">
         <v>20</v>
@@ -3025,7 +3044,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="36" customFormat="1" ht="13.5" thickBot="1">
+    <row r="41" spans="1:7" s="36" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="31"/>
       <c r="B41" s="32"/>
       <c r="C41" s="32"/>
@@ -3034,21 +3053,21 @@
       <c r="F41" s="35"/>
       <c r="G41" s="66"/>
     </row>
-    <row r="42" spans="1:7" s="36" customFormat="1" ht="52.5" customHeight="1" thickBot="1">
-      <c r="A42" s="106">
+    <row r="42" spans="1:7" s="36" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="100">
         <v>12</v>
       </c>
-      <c r="B42" s="104" t="s">
+      <c r="B42" s="101" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="101" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="104" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42" s="46" t="s">
-        <v>71</v>
-      </c>
       <c r="E42" s="43" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F42" s="87" t="s">
         <v>14</v>
@@ -3057,15 +3076,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="36" customFormat="1" ht="66.75" customHeight="1" thickBot="1">
-      <c r="A43" s="106"/>
-      <c r="B43" s="104"/>
-      <c r="C43" s="104"/>
+    <row r="43" spans="1:7" s="36" customFormat="1" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="100"/>
+      <c r="B43" s="101"/>
+      <c r="C43" s="101"/>
       <c r="D43" s="47" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E43" s="75" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F43" s="87" t="s">
         <v>19</v>
@@ -3074,7 +3093,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="36" customFormat="1" ht="13.5" thickBot="1">
+    <row r="44" spans="1:7" s="36" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="31"/>
       <c r="B44" s="32"/>
       <c r="C44" s="32"/>
@@ -3083,21 +3102,21 @@
       <c r="F44" s="35"/>
       <c r="G44" s="66"/>
     </row>
-    <row r="45" spans="1:7" s="36" customFormat="1" ht="50.25" customHeight="1" thickBot="1">
-      <c r="A45" s="106">
+    <row r="45" spans="1:7" s="36" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="100">
         <v>13</v>
       </c>
-      <c r="B45" s="104" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="104" t="s">
+      <c r="B45" s="101" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="101" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="D45" s="46" t="s">
-        <v>73</v>
-      </c>
       <c r="E45" s="76" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F45" s="87" t="s">
         <v>14</v>
@@ -3106,15 +3125,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="36" customFormat="1" ht="66.75" customHeight="1" thickBot="1">
-      <c r="A46" s="106"/>
-      <c r="B46" s="104"/>
-      <c r="C46" s="104"/>
+    <row r="46" spans="1:7" s="36" customFormat="1" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="100"/>
+      <c r="B46" s="101"/>
+      <c r="C46" s="101"/>
       <c r="D46" s="47" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E46" s="75" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F46" s="87" t="s">
         <v>21</v>
@@ -3123,7 +3142,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="36" customFormat="1" ht="13.5" thickBot="1">
+    <row r="47" spans="1:7" s="36" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="31"/>
       <c r="B47" s="32"/>
       <c r="C47" s="32"/>
@@ -3132,21 +3151,21 @@
       <c r="F47" s="35"/>
       <c r="G47" s="66"/>
     </row>
-    <row r="48" spans="1:7" s="36" customFormat="1" ht="50.25" customHeight="1" thickBot="1">
-      <c r="A48" s="100">
+    <row r="48" spans="1:7" s="36" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="131">
         <v>14</v>
       </c>
-      <c r="B48" s="103" t="s">
-        <v>142</v>
-      </c>
-      <c r="C48" s="103" t="s">
+      <c r="B48" s="107" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" s="107" t="s">
         <v>14</v>
       </c>
       <c r="D48" s="43" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E48" s="43" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F48" s="87" t="s">
         <v>14</v>
@@ -3155,41 +3174,41 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:198" s="36" customFormat="1" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A49" s="101"/>
-      <c r="B49" s="104"/>
-      <c r="C49" s="104"/>
+    <row r="49" spans="1:198" s="36" customFormat="1" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="132"/>
+      <c r="B49" s="101"/>
+      <c r="C49" s="101"/>
       <c r="D49" s="67" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E49" s="67" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F49" s="87" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="G49" s="83" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:198" s="36" customFormat="1" ht="66.75" customHeight="1" thickBot="1">
-      <c r="A50" s="102"/>
-      <c r="B50" s="105"/>
-      <c r="C50" s="105"/>
+    <row r="50" spans="1:198" s="36" customFormat="1" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="133"/>
+      <c r="B50" s="130"/>
+      <c r="C50" s="130"/>
       <c r="D50" s="76" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E50" s="94" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="F50" s="95" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G50" s="83" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:198" s="36" customFormat="1" ht="13.5" thickBot="1">
+    <row r="51" spans="1:198" s="36" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="31"/>
       <c r="B51" s="32"/>
       <c r="C51" s="32"/>
@@ -3198,21 +3217,21 @@
       <c r="F51" s="35"/>
       <c r="G51" s="66"/>
     </row>
-    <row r="52" spans="1:198" s="36" customFormat="1" ht="50.25" customHeight="1" thickBot="1">
-      <c r="A52" s="100">
+    <row r="52" spans="1:198" s="36" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="131">
         <v>15</v>
       </c>
-      <c r="B52" s="103" t="s">
-        <v>143</v>
-      </c>
-      <c r="C52" s="103" t="s">
+      <c r="B52" s="107" t="s">
+        <v>137</v>
+      </c>
+      <c r="C52" s="107" t="s">
         <v>14</v>
       </c>
       <c r="D52" s="43" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E52" s="43" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F52" s="87" t="s">
         <v>14</v>
@@ -3221,41 +3240,41 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:198" s="36" customFormat="1" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A53" s="101"/>
-      <c r="B53" s="104"/>
-      <c r="C53" s="104"/>
+    <row r="53" spans="1:198" s="36" customFormat="1" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="132"/>
+      <c r="B53" s="101"/>
+      <c r="C53" s="101"/>
       <c r="D53" s="67" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E53" s="67" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F53" s="87" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G53" s="83" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:198" s="36" customFormat="1" ht="66.75" customHeight="1" thickBot="1">
-      <c r="A54" s="102"/>
-      <c r="B54" s="105"/>
-      <c r="C54" s="105"/>
+    <row r="54" spans="1:198" s="36" customFormat="1" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="133"/>
+      <c r="B54" s="130"/>
+      <c r="C54" s="130"/>
       <c r="D54" s="76" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E54" s="94" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="F54" s="95" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G54" s="83" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:198" s="36" customFormat="1" ht="13.5" thickBot="1">
+    <row r="55" spans="1:198" s="36" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="31"/>
       <c r="B55" s="32"/>
       <c r="C55" s="32"/>
@@ -3264,21 +3283,21 @@
       <c r="F55" s="35"/>
       <c r="G55" s="66"/>
     </row>
-    <row r="56" spans="1:198" s="36" customFormat="1" ht="50.25" customHeight="1" thickBot="1">
-      <c r="A56" s="100">
+    <row r="56" spans="1:198" s="36" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="131">
         <v>16</v>
       </c>
-      <c r="B56" s="103" t="s">
-        <v>163</v>
-      </c>
-      <c r="C56" s="103" t="s">
+      <c r="B56" s="107" t="s">
+        <v>152</v>
+      </c>
+      <c r="C56" s="107" t="s">
         <v>14</v>
       </c>
       <c r="D56" s="43" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E56" s="43" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F56" s="87" t="s">
         <v>14</v>
@@ -3287,41 +3306,41 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:198" s="36" customFormat="1" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A57" s="101"/>
-      <c r="B57" s="104"/>
-      <c r="C57" s="104"/>
+    <row r="57" spans="1:198" s="36" customFormat="1" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="132"/>
+      <c r="B57" s="101"/>
+      <c r="C57" s="101"/>
       <c r="D57" s="67" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E57" s="67" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F57" s="87" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="G57" s="83" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:198" s="36" customFormat="1" ht="66.75" customHeight="1" thickBot="1">
-      <c r="A58" s="102"/>
-      <c r="B58" s="105"/>
-      <c r="C58" s="105"/>
+    <row r="58" spans="1:198" s="36" customFormat="1" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="133"/>
+      <c r="B58" s="130"/>
+      <c r="C58" s="130"/>
       <c r="D58" s="76" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E58" s="94" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="F58" s="95" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="G58" s="83" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:198" ht="13.5" thickBot="1">
+    <row r="59" spans="1:198" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="54"/>
       <c r="B59" s="55"/>
       <c r="C59" s="55"/>
@@ -3330,26 +3349,26 @@
       <c r="F59" s="53"/>
       <c r="G59" s="69"/>
     </row>
-    <row r="60" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A60" s="106">
+    <row r="60" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="100">
         <v>17</v>
       </c>
-      <c r="B60" s="104" t="s">
-        <v>84</v>
-      </c>
-      <c r="C60" s="104" t="s">
-        <v>67</v>
-      </c>
-      <c r="D60" s="104" t="s">
-        <v>130</v>
-      </c>
-      <c r="E60" s="104" t="s">
-        <v>81</v>
-      </c>
-      <c r="F60" s="107" t="s">
+      <c r="B60" s="101" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="101" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" s="101" t="s">
+        <v>124</v>
+      </c>
+      <c r="E60" s="101" t="s">
+        <v>75</v>
+      </c>
+      <c r="F60" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="G60" s="109" t="s">
+      <c r="G60" s="104" t="s">
         <v>14</v>
       </c>
       <c r="H60" s="34"/>
@@ -3544,14 +3563,14 @@
       <c r="GO60" s="34"/>
       <c r="GP60" s="34"/>
     </row>
-    <row r="61" spans="1:198" s="33" customFormat="1" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A61" s="106"/>
-      <c r="B61" s="104"/>
-      <c r="C61" s="104"/>
-      <c r="D61" s="104"/>
-      <c r="E61" s="104"/>
-      <c r="F61" s="108"/>
-      <c r="G61" s="110"/>
+    <row r="61" spans="1:198" s="33" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="100"/>
+      <c r="B61" s="101"/>
+      <c r="C61" s="101"/>
+      <c r="D61" s="101"/>
+      <c r="E61" s="101"/>
+      <c r="F61" s="103"/>
+      <c r="G61" s="105"/>
       <c r="H61" s="34"/>
       <c r="I61" s="34"/>
       <c r="J61" s="34"/>
@@ -3744,7 +3763,7 @@
       <c r="GO61" s="34"/>
       <c r="GP61" s="34"/>
     </row>
-    <row r="62" spans="1:198" ht="13.5" thickBot="1">
+    <row r="62" spans="1:198" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="54"/>
       <c r="B62" s="55"/>
       <c r="C62" s="55"/>
@@ -3753,26 +3772,26 @@
       <c r="F62" s="53"/>
       <c r="G62" s="69"/>
     </row>
-    <row r="63" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A63" s="106">
+    <row r="63" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="100">
         <v>18</v>
       </c>
-      <c r="B63" s="104" t="s">
-        <v>82</v>
-      </c>
-      <c r="C63" s="104" t="s">
-        <v>67</v>
-      </c>
-      <c r="D63" s="104" t="s">
-        <v>129</v>
-      </c>
-      <c r="E63" s="104" t="s">
-        <v>83</v>
-      </c>
-      <c r="F63" s="107" t="s">
+      <c r="B63" s="101" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" s="101" t="s">
+        <v>61</v>
+      </c>
+      <c r="D63" s="101" t="s">
+        <v>123</v>
+      </c>
+      <c r="E63" s="101" t="s">
+        <v>77</v>
+      </c>
+      <c r="F63" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="G63" s="109" t="s">
+      <c r="G63" s="104" t="s">
         <v>14</v>
       </c>
       <c r="H63" s="34"/>
@@ -3967,14 +3986,14 @@
       <c r="GO63" s="34"/>
       <c r="GP63" s="34"/>
     </row>
-    <row r="64" spans="1:198" s="33" customFormat="1" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A64" s="106"/>
-      <c r="B64" s="104"/>
-      <c r="C64" s="104"/>
-      <c r="D64" s="104"/>
-      <c r="E64" s="104"/>
-      <c r="F64" s="108"/>
-      <c r="G64" s="110"/>
+    <row r="64" spans="1:198" s="33" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="100"/>
+      <c r="B64" s="101"/>
+      <c r="C64" s="101"/>
+      <c r="D64" s="101"/>
+      <c r="E64" s="101"/>
+      <c r="F64" s="103"/>
+      <c r="G64" s="105"/>
       <c r="H64" s="34"/>
       <c r="I64" s="34"/>
       <c r="J64" s="34"/>
@@ -4167,7 +4186,7 @@
       <c r="GO64" s="34"/>
       <c r="GP64" s="34"/>
     </row>
-    <row r="65" spans="1:198" ht="13.5" thickBot="1">
+    <row r="65" spans="1:198" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="54"/>
       <c r="B65" s="55"/>
       <c r="C65" s="55"/>
@@ -4176,26 +4195,26 @@
       <c r="F65" s="53"/>
       <c r="G65" s="69"/>
     </row>
-    <row r="66" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A66" s="133">
+    <row r="66" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="106">
         <v>19</v>
       </c>
-      <c r="B66" s="103" t="s">
-        <v>126</v>
-      </c>
-      <c r="C66" s="103" t="s">
-        <v>67</v>
-      </c>
-      <c r="D66" s="103" t="s">
-        <v>128</v>
-      </c>
-      <c r="E66" s="103" t="s">
-        <v>127</v>
-      </c>
-      <c r="F66" s="107" t="s">
+      <c r="B66" s="107" t="s">
+        <v>120</v>
+      </c>
+      <c r="C66" s="107" t="s">
+        <v>61</v>
+      </c>
+      <c r="D66" s="107" t="s">
+        <v>122</v>
+      </c>
+      <c r="E66" s="107" t="s">
+        <v>121</v>
+      </c>
+      <c r="F66" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="G66" s="109" t="s">
+      <c r="G66" s="104" t="s">
         <v>14</v>
       </c>
       <c r="H66" s="34"/>
@@ -4390,14 +4409,14 @@
       <c r="GO66" s="34"/>
       <c r="GP66" s="34"/>
     </row>
-    <row r="67" spans="1:198" s="33" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A67" s="106"/>
-      <c r="B67" s="104"/>
-      <c r="C67" s="104"/>
-      <c r="D67" s="104"/>
-      <c r="E67" s="104"/>
-      <c r="F67" s="108"/>
-      <c r="G67" s="110"/>
+    <row r="67" spans="1:198" s="33" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="100"/>
+      <c r="B67" s="101"/>
+      <c r="C67" s="101"/>
+      <c r="D67" s="101"/>
+      <c r="E67" s="101"/>
+      <c r="F67" s="103"/>
+      <c r="G67" s="105"/>
       <c r="H67" s="34"/>
       <c r="I67" s="34"/>
       <c r="J67" s="34"/>
@@ -4592,30 +4611,42 @@
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="C39:C40"/>
@@ -4628,46 +4659,34 @@
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="C35:C37"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4675,42 +4694,42 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GX57"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
+      <pane ySplit="6" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="4" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="27.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="31" style="1" customWidth="1"/>
-    <col min="5" max="5" width="39.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="50.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="39.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="36.28515625" style="2" customWidth="1"/>
     <col min="8" max="16384" width="4" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:206" s="7" customFormat="1" ht="31.5" customHeight="1" thickBot="1">
+    <row r="1" spans="1:206" s="7" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="118" t="s">
+      <c r="C1" s="145"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="121" t="s">
+      <c r="F1" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="121" t="s">
+      <c r="G1" s="119" t="s">
         <v>9</v>
       </c>
       <c r="H1" s="71"/>
@@ -4913,14 +4932,14 @@
       <c r="GW1" s="37"/>
       <c r="GX1" s="37"/>
     </row>
-    <row r="2" spans="1:206" s="7" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
+    <row r="2" spans="1:206" s="7" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="74"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
       <c r="H2" s="71"/>
       <c r="I2" s="71"/>
       <c r="J2" s="71"/>
@@ -5121,18 +5140,18 @@
       <c r="GW2" s="37"/>
       <c r="GX2" s="37"/>
     </row>
-    <row r="3" spans="1:206" s="5" customFormat="1">
-      <c r="A3" s="124" t="s">
+    <row r="3" spans="1:206" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="126" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="136"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
+      <c r="B3" s="124" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="140"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
       <c r="H3" s="71"/>
       <c r="I3" s="71"/>
       <c r="J3" s="71"/>
@@ -5333,14 +5352,14 @@
       <c r="GW3" s="37"/>
       <c r="GX3" s="37"/>
     </row>
-    <row r="4" spans="1:206" s="5" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A4" s="125"/>
-      <c r="B4" s="138"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
+    <row r="4" spans="1:206" s="5" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="123"/>
+      <c r="B4" s="142"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
       <c r="H4" s="71"/>
       <c r="I4" s="71"/>
       <c r="J4" s="71"/>
@@ -5541,7 +5560,7 @@
       <c r="GW4" s="37"/>
       <c r="GX4" s="37"/>
     </row>
-    <row r="5" spans="1:206" s="4" customFormat="1">
+    <row r="5" spans="1:206" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -5741,7 +5760,7 @@
       <c r="GO5" s="37"/>
       <c r="GP5" s="37"/>
     </row>
-    <row r="6" spans="1:206" s="6" customFormat="1" ht="13.5" thickBot="1">
+    <row r="6" spans="1:206" s="6" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>6</v>
       </c>
@@ -5955,7 +5974,7 @@
       <c r="GO6" s="37"/>
       <c r="GP6" s="37"/>
     </row>
-    <row r="7" spans="1:206" ht="13.5" thickBot="1">
+    <row r="7" spans="1:206" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31"/>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
@@ -6155,21 +6174,21 @@
       <c r="GO7" s="36"/>
       <c r="GP7" s="36"/>
     </row>
-    <row r="8" spans="1:206" s="41" customFormat="1" ht="41.25" customHeight="1" thickBot="1">
-      <c r="A8" s="100">
+    <row r="8" spans="1:206" s="41" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="131">
         <v>20</v>
       </c>
-      <c r="B8" s="134" t="s">
+      <c r="B8" s="138" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="138" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="75" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" s="134" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="75" t="s">
-        <v>28</v>
       </c>
       <c r="F8" s="87" t="s">
         <v>14</v>
@@ -6369,18 +6388,18 @@
       <c r="GO8" s="40"/>
       <c r="GP8" s="40"/>
     </row>
-    <row r="9" spans="1:206" s="41" customFormat="1" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A9" s="102"/>
-      <c r="B9" s="135"/>
-      <c r="C9" s="135"/>
+    <row r="9" spans="1:206" s="41" customFormat="1" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="133"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="139"/>
       <c r="D9" s="75" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9" s="75" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F9" s="87" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G9" s="92" t="s">
         <v>14</v>
@@ -6577,7 +6596,7 @@
       <c r="GO9" s="40"/>
       <c r="GP9" s="40"/>
     </row>
-    <row r="10" spans="1:206" s="52" customFormat="1" ht="13.5" thickBot="1">
+    <row r="10" spans="1:206" s="52" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
@@ -6777,21 +6796,21 @@
       <c r="GO10" s="51"/>
       <c r="GP10" s="51"/>
     </row>
-    <row r="11" spans="1:206" s="41" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A11" s="100">
+    <row r="11" spans="1:206" s="41" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="131">
         <v>21</v>
       </c>
-      <c r="B11" s="134" t="s">
+      <c r="B11" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="134" t="s">
-        <v>27</v>
+      <c r="C11" s="138" t="s">
+        <v>172</v>
       </c>
       <c r="D11" s="75" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E11" s="75" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F11" s="87" t="s">
         <v>14</v>
@@ -6991,18 +7010,18 @@
       <c r="GO11" s="40"/>
       <c r="GP11" s="40"/>
     </row>
-    <row r="12" spans="1:206" s="41" customFormat="1" ht="48.75" customHeight="1" thickBot="1">
-      <c r="A12" s="102"/>
-      <c r="B12" s="135"/>
-      <c r="C12" s="135"/>
+    <row r="12" spans="1:206" s="41" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="133"/>
+      <c r="B12" s="139"/>
+      <c r="C12" s="139"/>
       <c r="D12" s="75" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E12" s="75" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F12" s="87" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G12" s="92" t="s">
         <v>14</v>
@@ -7199,7 +7218,7 @@
       <c r="GO12" s="40"/>
       <c r="GP12" s="40"/>
     </row>
-    <row r="13" spans="1:206" s="52" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
+    <row r="13" spans="1:206" s="52" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="31"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -7401,21 +7420,21 @@
       <c r="GO13" s="51"/>
       <c r="GP13" s="51"/>
     </row>
-    <row r="14" spans="1:206" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A14" s="100">
+    <row r="14" spans="1:206" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="131">
         <v>22</v>
       </c>
-      <c r="B14" s="134" t="s">
+      <c r="B14" s="138" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="134" t="s">
-        <v>27</v>
+      <c r="C14" s="138" t="s">
+        <v>172</v>
       </c>
       <c r="D14" s="75" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E14" s="75" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F14" s="87" t="s">
         <v>14</v>
@@ -7615,18 +7634,18 @@
       <c r="GO14" s="34"/>
       <c r="GP14" s="34"/>
     </row>
-    <row r="15" spans="1:206" s="33" customFormat="1" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A15" s="102"/>
-      <c r="B15" s="135"/>
-      <c r="C15" s="135"/>
+    <row r="15" spans="1:206" s="33" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="133"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="139"/>
       <c r="D15" s="75" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E15" s="75" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F15" s="87" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G15" s="92" t="s">
         <v>14</v>
@@ -7823,7 +7842,7 @@
       <c r="GO15" s="34"/>
       <c r="GP15" s="34"/>
     </row>
-    <row r="16" spans="1:206" s="52" customFormat="1" ht="13.5" thickBot="1">
+    <row r="16" spans="1:206" s="52" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -8023,21 +8042,21 @@
       <c r="GO16" s="51"/>
       <c r="GP16" s="51"/>
     </row>
-    <row r="17" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A17" s="100">
+    <row r="17" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="131">
         <v>23</v>
       </c>
-      <c r="B17" s="134" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="134" t="s">
-        <v>27</v>
+      <c r="B17" s="138" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="138" t="s">
+        <v>172</v>
       </c>
       <c r="D17" s="75" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E17" s="75" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F17" s="87" t="s">
         <v>14</v>
@@ -8237,18 +8256,18 @@
       <c r="GO17" s="34"/>
       <c r="GP17" s="34"/>
     </row>
-    <row r="18" spans="1:198" s="33" customFormat="1" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A18" s="102"/>
-      <c r="B18" s="135"/>
-      <c r="C18" s="135"/>
+    <row r="18" spans="1:198" s="33" customFormat="1" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="133"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="139"/>
       <c r="D18" s="75" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E18" s="75" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F18" s="87" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G18" s="92" t="s">
         <v>14</v>
@@ -8445,7 +8464,7 @@
       <c r="GO18" s="34"/>
       <c r="GP18" s="34"/>
     </row>
-    <row r="19" spans="1:198" s="52" customFormat="1" ht="13.5" thickBot="1">
+    <row r="19" spans="1:198" s="52" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31"/>
       <c r="B19" s="32"/>
       <c r="C19" s="32"/>
@@ -8645,21 +8664,21 @@
       <c r="GO19" s="51"/>
       <c r="GP19" s="51"/>
     </row>
-    <row r="20" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A20" s="100">
+    <row r="20" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="131">
         <v>24</v>
       </c>
-      <c r="B20" s="134" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="134" t="s">
-        <v>27</v>
+      <c r="B20" s="138" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="138" t="s">
+        <v>172</v>
       </c>
       <c r="D20" s="75" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E20" s="75" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>14</v>
@@ -8859,18 +8878,18 @@
       <c r="GO20" s="34"/>
       <c r="GP20" s="34"/>
     </row>
-    <row r="21" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A21" s="102"/>
-      <c r="B21" s="135"/>
-      <c r="C21" s="135"/>
+    <row r="21" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="133"/>
+      <c r="B21" s="139"/>
+      <c r="C21" s="139"/>
       <c r="D21" s="75" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E21" s="75" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F21" s="87" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G21" s="83" t="s">
         <v>14</v>
@@ -9067,7 +9086,7 @@
       <c r="GO21" s="34"/>
       <c r="GP21" s="34"/>
     </row>
-    <row r="22" spans="1:198" s="52" customFormat="1" ht="13.5" thickBot="1">
+    <row r="22" spans="1:198" s="52" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="31"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -9267,21 +9286,21 @@
       <c r="GO22" s="51"/>
       <c r="GP22" s="51"/>
     </row>
-    <row r="23" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A23" s="100">
+    <row r="23" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="131">
         <v>25</v>
       </c>
-      <c r="B23" s="134" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="134" t="s">
-        <v>27</v>
+      <c r="B23" s="138" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="138" t="s">
+        <v>172</v>
       </c>
       <c r="D23" s="75" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E23" s="75" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F23" s="87" t="s">
         <v>14</v>
@@ -9481,18 +9500,18 @@
       <c r="GO23" s="34"/>
       <c r="GP23" s="34"/>
     </row>
-    <row r="24" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A24" s="102"/>
-      <c r="B24" s="135"/>
-      <c r="C24" s="135"/>
+    <row r="24" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="133"/>
+      <c r="B24" s="139"/>
+      <c r="C24" s="139"/>
       <c r="D24" s="75" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E24" s="75" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F24" s="87" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G24" s="83" t="s">
         <v>14</v>
@@ -9689,7 +9708,7 @@
       <c r="GO24" s="34"/>
       <c r="GP24" s="34"/>
     </row>
-    <row r="25" spans="1:198" s="52" customFormat="1" ht="13.5" thickBot="1">
+    <row r="25" spans="1:198" s="52" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="54"/>
       <c r="B25" s="55"/>
       <c r="C25" s="55"/>
@@ -9796,21 +9815,21 @@
       <c r="CZ25" s="8"/>
       <c r="DA25" s="8"/>
     </row>
-    <row r="26" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A26" s="100">
+    <row r="26" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="131">
         <v>26</v>
       </c>
-      <c r="B26" s="134" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="134" t="s">
-        <v>27</v>
+      <c r="B26" s="138" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="138" t="s">
+        <v>172</v>
       </c>
       <c r="D26" s="75" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E26" s="75" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F26" s="87" t="s">
         <v>14</v>
@@ -10010,21 +10029,21 @@
       <c r="GO26" s="34"/>
       <c r="GP26" s="34"/>
     </row>
-    <row r="27" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A27" s="102"/>
-      <c r="B27" s="135"/>
-      <c r="C27" s="135"/>
+    <row r="27" spans="1:198" s="33" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="133"/>
+      <c r="B27" s="139"/>
+      <c r="C27" s="139"/>
       <c r="D27" s="75" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E27" s="75" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F27" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="83" t="s">
         <v>43</v>
-      </c>
-      <c r="G27" s="83" t="s">
-        <v>46</v>
       </c>
       <c r="H27" s="34"/>
       <c r="I27" s="34"/>
@@ -10218,7 +10237,7 @@
       <c r="GO27" s="34"/>
       <c r="GP27" s="34"/>
     </row>
-    <row r="28" spans="1:198" s="52" customFormat="1" ht="13.5" thickBot="1">
+    <row r="28" spans="1:198" s="52" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="54"/>
       <c r="B28" s="55"/>
       <c r="C28" s="55"/>
@@ -10325,21 +10344,21 @@
       <c r="CZ28" s="8"/>
       <c r="DA28" s="8"/>
     </row>
-    <row r="29" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A29" s="100">
+    <row r="29" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="131">
         <v>27</v>
       </c>
-      <c r="B29" s="134" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="134" t="s">
-        <v>27</v>
+      <c r="B29" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="138" t="s">
+        <v>172</v>
       </c>
       <c r="D29" s="75" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E29" s="75" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F29" s="87" t="s">
         <v>14</v>
@@ -10539,21 +10558,21 @@
       <c r="GO29" s="34"/>
       <c r="GP29" s="34"/>
     </row>
-    <row r="30" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A30" s="102"/>
-      <c r="B30" s="135"/>
-      <c r="C30" s="135"/>
+    <row r="30" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="133"/>
+      <c r="B30" s="139"/>
+      <c r="C30" s="139"/>
       <c r="D30" s="75" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E30" s="75" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F30" s="87" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G30" s="83" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H30" s="34"/>
       <c r="I30" s="34"/>
@@ -10747,7 +10766,7 @@
       <c r="GO30" s="34"/>
       <c r="GP30" s="34"/>
     </row>
-    <row r="31" spans="1:198" s="52" customFormat="1" ht="13.5" thickBot="1">
+    <row r="31" spans="1:198" s="52" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="54"/>
       <c r="B31" s="55"/>
       <c r="C31" s="55"/>
@@ -10854,21 +10873,21 @@
       <c r="CZ31" s="8"/>
       <c r="DA31" s="8"/>
     </row>
-    <row r="32" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A32" s="100">
+    <row r="32" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="131">
         <v>28</v>
       </c>
-      <c r="B32" s="134" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="134" t="s">
-        <v>35</v>
+      <c r="B32" s="138" t="s">
+        <v>181</v>
+      </c>
+      <c r="C32" s="138" t="s">
+        <v>173</v>
       </c>
       <c r="D32" s="75" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E32" s="75" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F32" s="87" t="s">
         <v>14</v>
@@ -11068,18 +11087,18 @@
       <c r="GO32" s="34"/>
       <c r="GP32" s="34"/>
     </row>
-    <row r="33" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A33" s="102"/>
-      <c r="B33" s="135"/>
-      <c r="C33" s="135"/>
+    <row r="33" spans="1:198" s="33" customFormat="1" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="133"/>
+      <c r="B33" s="139"/>
+      <c r="C33" s="139"/>
       <c r="D33" s="75" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E33" s="75" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F33" s="87" t="s">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="G33" s="83" t="s">
         <v>14</v>
@@ -11276,7 +11295,7 @@
       <c r="GO33" s="34"/>
       <c r="GP33" s="34"/>
     </row>
-    <row r="34" spans="1:198" s="52" customFormat="1" ht="13.5" thickBot="1">
+    <row r="34" spans="1:198" s="52" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="54"/>
       <c r="B34" s="55"/>
       <c r="C34" s="55"/>
@@ -11383,21 +11402,21 @@
       <c r="CZ34" s="8"/>
       <c r="DA34" s="8"/>
     </row>
-    <row r="35" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A35" s="100">
+    <row r="35" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="131">
         <v>29</v>
       </c>
-      <c r="B35" s="134" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="134" t="s">
-        <v>48</v>
+      <c r="B35" s="138" t="s">
+        <v>182</v>
+      </c>
+      <c r="C35" s="138" t="s">
+        <v>179</v>
       </c>
       <c r="D35" s="75" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E35" s="75" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F35" s="87" t="s">
         <v>14</v>
@@ -11597,18 +11616,18 @@
       <c r="GO35" s="34"/>
       <c r="GP35" s="34"/>
     </row>
-    <row r="36" spans="1:198" s="33" customFormat="1" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A36" s="102"/>
-      <c r="B36" s="135"/>
-      <c r="C36" s="135"/>
+    <row r="36" spans="1:198" s="33" customFormat="1" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="133"/>
+      <c r="B36" s="139"/>
+      <c r="C36" s="139"/>
       <c r="D36" s="75" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E36" s="75" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F36" s="87" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G36" s="83" t="s">
         <v>14</v>
@@ -11805,7 +11824,7 @@
       <c r="GO36" s="34"/>
       <c r="GP36" s="34"/>
     </row>
-    <row r="37" spans="1:198" s="52" customFormat="1" ht="13.5" thickBot="1">
+    <row r="37" spans="1:198" s="52" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="54"/>
       <c r="B37" s="55"/>
       <c r="C37" s="55"/>
@@ -11912,21 +11931,21 @@
       <c r="CZ37" s="8"/>
       <c r="DA37" s="8"/>
     </row>
-    <row r="38" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A38" s="100">
+    <row r="38" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="131">
         <v>30</v>
       </c>
-      <c r="B38" s="134" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="134" t="s">
-        <v>49</v>
+      <c r="B38" s="138" t="s">
+        <v>183</v>
+      </c>
+      <c r="C38" s="138" t="s">
+        <v>174</v>
       </c>
       <c r="D38" s="75" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E38" s="75" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F38" s="87" t="s">
         <v>14</v>
@@ -12126,18 +12145,18 @@
       <c r="GO38" s="34"/>
       <c r="GP38" s="34"/>
     </row>
-    <row r="39" spans="1:198" s="33" customFormat="1" ht="48" customHeight="1" thickBot="1">
-      <c r="A39" s="102"/>
-      <c r="B39" s="135"/>
-      <c r="C39" s="135"/>
+    <row r="39" spans="1:198" s="33" customFormat="1" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="133"/>
+      <c r="B39" s="139"/>
+      <c r="C39" s="139"/>
       <c r="D39" s="75" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E39" s="75" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F39" s="87" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G39" s="83" t="s">
         <v>14</v>
@@ -12334,7 +12353,7 @@
       <c r="GO39" s="34"/>
       <c r="GP39" s="34"/>
     </row>
-    <row r="40" spans="1:198" s="52" customFormat="1" ht="13.5" thickBot="1">
+    <row r="40" spans="1:198" s="52" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="54"/>
       <c r="B40" s="55"/>
       <c r="C40" s="55"/>
@@ -12441,21 +12460,21 @@
       <c r="CZ40" s="8"/>
       <c r="DA40" s="8"/>
     </row>
-    <row r="41" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A41" s="100">
+    <row r="41" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="131">
         <v>31</v>
       </c>
-      <c r="B41" s="134" t="s">
-        <v>146</v>
-      </c>
-      <c r="C41" s="134" t="s">
-        <v>148</v>
+      <c r="B41" s="138" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" s="138" t="s">
+        <v>175</v>
       </c>
       <c r="D41" s="75" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E41" s="75" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F41" s="87" t="s">
         <v>14</v>
@@ -12655,18 +12674,18 @@
       <c r="GO41" s="34"/>
       <c r="GP41" s="34"/>
     </row>
-    <row r="42" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A42" s="102"/>
-      <c r="B42" s="135"/>
-      <c r="C42" s="135"/>
+    <row r="42" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="133"/>
+      <c r="B42" s="139"/>
+      <c r="C42" s="139"/>
       <c r="D42" s="75" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E42" s="75" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F42" s="87" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G42" s="83" t="s">
         <v>14</v>
@@ -12863,7 +12882,7 @@
       <c r="GO42" s="34"/>
       <c r="GP42" s="34"/>
     </row>
-    <row r="43" spans="1:198" s="52" customFormat="1" ht="13.5" thickBot="1">
+    <row r="43" spans="1:198" s="52" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="54"/>
       <c r="B43" s="55"/>
       <c r="C43" s="55"/>
@@ -12970,21 +12989,21 @@
       <c r="CZ43" s="8"/>
       <c r="DA43" s="8"/>
     </row>
-    <row r="44" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A44" s="100">
+    <row r="44" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="131">
         <v>32</v>
       </c>
-      <c r="B44" s="134" t="s">
-        <v>147</v>
-      </c>
-      <c r="C44" s="134" t="s">
-        <v>149</v>
+      <c r="B44" s="138" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" s="138" t="s">
+        <v>176</v>
       </c>
       <c r="D44" s="75" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E44" s="75" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F44" s="87" t="s">
         <v>14</v>
@@ -13184,18 +13203,18 @@
       <c r="GO44" s="34"/>
       <c r="GP44" s="34"/>
     </row>
-    <row r="45" spans="1:198" s="33" customFormat="1" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A45" s="102"/>
-      <c r="B45" s="135"/>
-      <c r="C45" s="135"/>
+    <row r="45" spans="1:198" s="33" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="133"/>
+      <c r="B45" s="139"/>
+      <c r="C45" s="139"/>
       <c r="D45" s="75" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E45" s="75" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F45" s="87" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="G45" s="83" t="s">
         <v>14</v>
@@ -13392,7 +13411,7 @@
       <c r="GO45" s="34"/>
       <c r="GP45" s="34"/>
     </row>
-    <row r="46" spans="1:198" s="52" customFormat="1" ht="13.5" thickBot="1">
+    <row r="46" spans="1:198" s="52" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="54"/>
       <c r="B46" s="55"/>
       <c r="C46" s="55"/>
@@ -13499,21 +13518,21 @@
       <c r="CZ46" s="8"/>
       <c r="DA46" s="8"/>
     </row>
-    <row r="47" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A47" s="100">
+    <row r="47" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="131">
         <v>33</v>
       </c>
-      <c r="B47" s="134" t="s">
-        <v>166</v>
-      </c>
-      <c r="C47" s="134" t="s">
-        <v>167</v>
+      <c r="B47" s="138" t="s">
+        <v>155</v>
+      </c>
+      <c r="C47" s="138" t="s">
+        <v>177</v>
       </c>
       <c r="D47" s="75" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E47" s="75" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F47" s="87" t="s">
         <v>14</v>
@@ -13713,18 +13732,18 @@
       <c r="GO47" s="34"/>
       <c r="GP47" s="34"/>
     </row>
-    <row r="48" spans="1:198" s="33" customFormat="1" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A48" s="102"/>
-      <c r="B48" s="135"/>
-      <c r="C48" s="135"/>
+    <row r="48" spans="1:198" s="33" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="133"/>
+      <c r="B48" s="139"/>
+      <c r="C48" s="139"/>
       <c r="D48" s="75" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E48" s="75" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="F48" s="87" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="G48" s="83" t="s">
         <v>14</v>
@@ -13921,7 +13940,7 @@
       <c r="GO48" s="34"/>
       <c r="GP48" s="34"/>
     </row>
-    <row r="49" spans="1:198" s="52" customFormat="1" ht="13.5" thickBot="1">
+    <row r="49" spans="1:198" s="52" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="54"/>
       <c r="B49" s="55"/>
       <c r="C49" s="55"/>
@@ -14028,26 +14047,26 @@
       <c r="CZ49" s="8"/>
       <c r="DA49" s="8"/>
     </row>
-    <row r="50" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A50" s="143">
+    <row r="50" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="134">
         <v>34</v>
       </c>
-      <c r="B50" s="103" t="s">
-        <v>80</v>
-      </c>
-      <c r="C50" s="103" t="s">
-        <v>67</v>
-      </c>
-      <c r="D50" s="103" t="s">
-        <v>133</v>
-      </c>
-      <c r="E50" s="103" t="s">
-        <v>81</v>
-      </c>
-      <c r="F50" s="107" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" s="109" t="s">
+      <c r="B50" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="107" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="107" t="s">
+        <v>127</v>
+      </c>
+      <c r="E50" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="F50" s="102" t="s">
+        <v>178</v>
+      </c>
+      <c r="G50" s="104" t="s">
         <v>14</v>
       </c>
       <c r="H50" s="34"/>
@@ -14242,14 +14261,14 @@
       <c r="GO50" s="34"/>
       <c r="GP50" s="34"/>
     </row>
-    <row r="51" spans="1:198" s="33" customFormat="1" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A51" s="144"/>
-      <c r="B51" s="105"/>
-      <c r="C51" s="105"/>
-      <c r="D51" s="105"/>
-      <c r="E51" s="105"/>
-      <c r="F51" s="145"/>
-      <c r="G51" s="146"/>
+    <row r="51" spans="1:198" s="33" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="135"/>
+      <c r="B51" s="130"/>
+      <c r="C51" s="130"/>
+      <c r="D51" s="130"/>
+      <c r="E51" s="130"/>
+      <c r="F51" s="136"/>
+      <c r="G51" s="137"/>
       <c r="H51" s="34"/>
       <c r="I51" s="34"/>
       <c r="J51" s="34"/>
@@ -14442,7 +14461,7 @@
       <c r="GO51" s="34"/>
       <c r="GP51" s="34"/>
     </row>
-    <row r="52" spans="1:198" s="52" customFormat="1" ht="13.5" thickBot="1">
+    <row r="52" spans="1:198" s="52" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="54"/>
       <c r="B52" s="55"/>
       <c r="C52" s="55"/>
@@ -14549,26 +14568,26 @@
       <c r="CZ52" s="8"/>
       <c r="DA52" s="8"/>
     </row>
-    <row r="53" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A53" s="133">
+    <row r="53" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="106">
         <v>35</v>
       </c>
-      <c r="B53" s="103" t="s">
-        <v>82</v>
-      </c>
-      <c r="C53" s="103" t="s">
-        <v>67</v>
-      </c>
-      <c r="D53" s="103" t="s">
-        <v>131</v>
-      </c>
-      <c r="E53" s="103" t="s">
-        <v>83</v>
-      </c>
-      <c r="F53" s="107" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" s="109" t="s">
+      <c r="B53" s="107" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="107" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" s="107" t="s">
+        <v>125</v>
+      </c>
+      <c r="E53" s="107" t="s">
+        <v>77</v>
+      </c>
+      <c r="F53" s="102" t="s">
+        <v>178</v>
+      </c>
+      <c r="G53" s="104" t="s">
         <v>14</v>
       </c>
       <c r="H53" s="34"/>
@@ -14763,14 +14782,14 @@
       <c r="GO53" s="34"/>
       <c r="GP53" s="34"/>
     </row>
-    <row r="54" spans="1:198" s="33" customFormat="1" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A54" s="106"/>
-      <c r="B54" s="104"/>
-      <c r="C54" s="104"/>
-      <c r="D54" s="104"/>
-      <c r="E54" s="104"/>
-      <c r="F54" s="108"/>
-      <c r="G54" s="110"/>
+    <row r="54" spans="1:198" s="33" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="100"/>
+      <c r="B54" s="101"/>
+      <c r="C54" s="101"/>
+      <c r="D54" s="101"/>
+      <c r="E54" s="101"/>
+      <c r="F54" s="136"/>
+      <c r="G54" s="105"/>
       <c r="H54" s="34"/>
       <c r="I54" s="34"/>
       <c r="J54" s="34"/>
@@ -14963,7 +14982,7 @@
       <c r="GO54" s="34"/>
       <c r="GP54" s="34"/>
     </row>
-    <row r="55" spans="1:198" ht="13.5" thickBot="1">
+    <row r="55" spans="1:198" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="54"/>
       <c r="B55" s="55"/>
       <c r="C55" s="55"/>
@@ -14972,26 +14991,26 @@
       <c r="F55" s="53"/>
       <c r="G55" s="69"/>
     </row>
-    <row r="56" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A56" s="133">
+    <row r="56" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="106">
         <v>36</v>
       </c>
-      <c r="B56" s="103" t="s">
+      <c r="B56" s="107" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56" s="107" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" s="107" t="s">
         <v>126</v>
       </c>
-      <c r="C56" s="103" t="s">
-        <v>67</v>
-      </c>
-      <c r="D56" s="103" t="s">
-        <v>132</v>
-      </c>
-      <c r="E56" s="103" t="s">
-        <v>127</v>
-      </c>
-      <c r="F56" s="107" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" s="109" t="s">
+      <c r="E56" s="107" t="s">
+        <v>121</v>
+      </c>
+      <c r="F56" s="102" t="s">
+        <v>178</v>
+      </c>
+      <c r="G56" s="104" t="s">
         <v>14</v>
       </c>
       <c r="H56" s="34"/>
@@ -15186,14 +15205,14 @@
       <c r="GO56" s="34"/>
       <c r="GP56" s="34"/>
     </row>
-    <row r="57" spans="1:198" s="33" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A57" s="106"/>
-      <c r="B57" s="104"/>
-      <c r="C57" s="104"/>
-      <c r="D57" s="104"/>
-      <c r="E57" s="104"/>
-      <c r="F57" s="108"/>
-      <c r="G57" s="110"/>
+    <row r="57" spans="1:198" s="33" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="100"/>
+      <c r="B57" s="101"/>
+      <c r="C57" s="101"/>
+      <c r="D57" s="101"/>
+      <c r="E57" s="101"/>
+      <c r="F57" s="136"/>
+      <c r="G57" s="105"/>
       <c r="H57" s="34"/>
       <c r="I57" s="34"/>
       <c r="J57" s="34"/>
@@ -15388,54 +15407,12 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="B41:B42"/>
     <mergeCell ref="C41:C42"/>
@@ -15452,12 +15429,54 @@
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:E4"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
   </mergeCells>
   <conditionalFormatting sqref="G21">
     <cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal">
@@ -15473,15 +15492,15 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GX80"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E82" sqref="E82"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C76" sqref="C76:C77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="4" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" style="1" customWidth="1"/>
@@ -15493,16 +15512,16 @@
     <col min="8" max="16384" width="4" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:206" s="7" customFormat="1" ht="31.5" customHeight="1" thickBot="1">
+    <row r="1" spans="1:206" s="7" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="118" t="s">
+      <c r="C1" s="145"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="116" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="89" t="s">
@@ -15711,12 +15730,12 @@
       <c r="GW1" s="37"/>
       <c r="GX1" s="37"/>
     </row>
-    <row r="2" spans="1:206" s="7" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
+    <row r="2" spans="1:206" s="7" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="74"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="119"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="117"/>
       <c r="F2" s="90"/>
       <c r="G2" s="90"/>
       <c r="H2" s="71"/>
@@ -15919,16 +15938,16 @@
       <c r="GW2" s="37"/>
       <c r="GX2" s="37"/>
     </row>
-    <row r="3" spans="1:206" s="5" customFormat="1">
-      <c r="A3" s="124" t="s">
+    <row r="3" spans="1:206" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="126" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="136"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="119"/>
+      <c r="B3" s="124" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="140"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="117"/>
       <c r="F3" s="90"/>
       <c r="G3" s="90"/>
       <c r="H3" s="71"/>
@@ -16131,12 +16150,12 @@
       <c r="GW3" s="37"/>
       <c r="GX3" s="37"/>
     </row>
-    <row r="4" spans="1:206" s="5" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A4" s="125"/>
-      <c r="B4" s="138"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="120"/>
+    <row r="4" spans="1:206" s="5" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="123"/>
+      <c r="B4" s="142"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="118"/>
       <c r="F4" s="91"/>
       <c r="G4" s="91"/>
       <c r="H4" s="71"/>
@@ -16339,7 +16358,7 @@
       <c r="GW4" s="37"/>
       <c r="GX4" s="37"/>
     </row>
-    <row r="5" spans="1:206" s="4" customFormat="1">
+    <row r="5" spans="1:206" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -16539,7 +16558,7 @@
       <c r="GO5" s="37"/>
       <c r="GP5" s="37"/>
     </row>
-    <row r="6" spans="1:206" s="6" customFormat="1" ht="13.5" thickBot="1">
+    <row r="6" spans="1:206" s="6" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>6</v>
       </c>
@@ -16753,7 +16772,7 @@
       <c r="GO6" s="37"/>
       <c r="GP6" s="37"/>
     </row>
-    <row r="7" spans="1:206" ht="13.5" thickBot="1">
+    <row r="7" spans="1:206" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31"/>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
@@ -16953,21 +16972,21 @@
       <c r="GO7" s="36"/>
       <c r="GP7" s="36"/>
     </row>
-    <row r="8" spans="1:206" s="41" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
+    <row r="8" spans="1:206" s="41" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="77">
         <v>37</v>
       </c>
       <c r="B8" s="78" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D8" s="75" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E8" s="75" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F8" s="85" t="s">
         <v>14</v>
@@ -17167,7 +17186,7 @@
       <c r="GO8" s="40"/>
       <c r="GP8" s="40"/>
     </row>
-    <row r="9" spans="1:206" s="52" customFormat="1" ht="13.5" thickBot="1">
+    <row r="9" spans="1:206" s="52" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31"/>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -17367,21 +17386,21 @@
       <c r="GO9" s="51"/>
       <c r="GP9" s="51"/>
     </row>
-    <row r="10" spans="1:206" s="41" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A10" s="100">
+    <row r="10" spans="1:206" s="41" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="131">
         <v>38</v>
       </c>
-      <c r="B10" s="134" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="134" t="s">
-        <v>107</v>
+      <c r="B10" s="138" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="138" t="s">
+        <v>101</v>
       </c>
       <c r="D10" s="75" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E10" s="75" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F10" s="87" t="s">
         <v>14</v>
@@ -17581,15 +17600,15 @@
       <c r="GO10" s="40"/>
       <c r="GP10" s="40"/>
     </row>
-    <row r="11" spans="1:206" s="41" customFormat="1" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A11" s="101"/>
+    <row r="11" spans="1:206" s="41" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="132"/>
       <c r="B11" s="147"/>
       <c r="C11" s="147"/>
       <c r="D11" s="75" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E11" s="75" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F11" s="87" t="s">
         <v>14</v>
@@ -17789,15 +17808,15 @@
       <c r="GO11" s="40"/>
       <c r="GP11" s="40"/>
     </row>
-    <row r="12" spans="1:206" s="52" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A12" s="101"/>
+    <row r="12" spans="1:206" s="52" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="132"/>
       <c r="B12" s="147"/>
       <c r="C12" s="147"/>
       <c r="D12" s="75" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E12" s="75" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F12" s="87" t="s">
         <v>14</v>
@@ -17997,15 +18016,15 @@
       <c r="GO12" s="51"/>
       <c r="GP12" s="51"/>
     </row>
-    <row r="13" spans="1:206" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A13" s="102"/>
-      <c r="B13" s="135"/>
-      <c r="C13" s="135"/>
+    <row r="13" spans="1:206" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="133"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="139"/>
       <c r="D13" s="75" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E13" s="75" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F13" s="87" t="s">
         <v>14</v>
@@ -18205,7 +18224,7 @@
       <c r="GO13" s="34"/>
       <c r="GP13" s="34"/>
     </row>
-    <row r="14" spans="1:206" s="52" customFormat="1" ht="13.5" thickBot="1">
+    <row r="14" spans="1:206" s="52" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -18405,21 +18424,21 @@
       <c r="GO14" s="51"/>
       <c r="GP14" s="51"/>
     </row>
-    <row r="15" spans="1:206" s="52" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A15" s="100">
+    <row r="15" spans="1:206" s="52" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="131">
         <v>39</v>
       </c>
-      <c r="B15" s="134" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="134" t="s">
-        <v>108</v>
+      <c r="B15" s="138" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="138" t="s">
+        <v>102</v>
       </c>
       <c r="D15" s="75" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E15" s="75" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F15" s="87" t="s">
         <v>14</v>
@@ -18619,15 +18638,15 @@
       <c r="GO15" s="51"/>
       <c r="GP15" s="51"/>
     </row>
-    <row r="16" spans="1:206" s="33" customFormat="1" ht="41.25" customHeight="1" thickBot="1">
-      <c r="A16" s="101"/>
+    <row r="16" spans="1:206" s="33" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="132"/>
       <c r="B16" s="147"/>
       <c r="C16" s="147"/>
       <c r="D16" s="75" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E16" s="75" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F16" s="87" t="s">
         <v>14</v>
@@ -18827,15 +18846,15 @@
       <c r="GO16" s="34"/>
       <c r="GP16" s="34"/>
     </row>
-    <row r="17" spans="1:198" s="33" customFormat="1" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A17" s="101"/>
+    <row r="17" spans="1:198" s="33" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="132"/>
       <c r="B17" s="147"/>
       <c r="C17" s="147"/>
       <c r="D17" s="75" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E17" s="75" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F17" s="87" t="s">
         <v>14</v>
@@ -19035,15 +19054,15 @@
       <c r="GO17" s="34"/>
       <c r="GP17" s="34"/>
     </row>
-    <row r="18" spans="1:198" s="52" customFormat="1" ht="41.25" customHeight="1" thickBot="1">
-      <c r="A18" s="101"/>
+    <row r="18" spans="1:198" s="52" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="132"/>
       <c r="B18" s="147"/>
       <c r="C18" s="147"/>
       <c r="D18" s="75" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E18" s="75" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F18" s="87" t="s">
         <v>14</v>
@@ -19243,15 +19262,15 @@
       <c r="GO18" s="51"/>
       <c r="GP18" s="51"/>
     </row>
-    <row r="19" spans="1:198" s="33" customFormat="1" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A19" s="101"/>
+    <row r="19" spans="1:198" s="33" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="132"/>
       <c r="B19" s="147"/>
       <c r="C19" s="147"/>
       <c r="D19" s="75" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E19" s="75" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F19" s="87" t="s">
         <v>14</v>
@@ -19451,15 +19470,15 @@
       <c r="GO19" s="34"/>
       <c r="GP19" s="34"/>
     </row>
-    <row r="20" spans="1:198" s="52" customFormat="1" ht="41.25" customHeight="1" thickBot="1">
-      <c r="A20" s="102"/>
-      <c r="B20" s="135"/>
-      <c r="C20" s="135"/>
+    <row r="20" spans="1:198" s="52" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="133"/>
+      <c r="B20" s="139"/>
+      <c r="C20" s="139"/>
       <c r="D20" s="75" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E20" s="75" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>14</v>
@@ -19659,7 +19678,7 @@
       <c r="GO20" s="51"/>
       <c r="GP20" s="51"/>
     </row>
-    <row r="21" spans="1:198" s="52" customFormat="1" ht="13.5" thickBot="1">
+    <row r="21" spans="1:198" s="52" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="31"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -19859,21 +19878,21 @@
       <c r="GO21" s="51"/>
       <c r="GP21" s="51"/>
     </row>
-    <row r="22" spans="1:198" s="52" customFormat="1" ht="41.25" customHeight="1" thickBot="1">
-      <c r="A22" s="100">
+    <row r="22" spans="1:198" s="52" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="131">
         <v>40</v>
       </c>
-      <c r="B22" s="134" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22" s="134" t="s">
-        <v>109</v>
+      <c r="B22" s="138" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="138" t="s">
+        <v>103</v>
       </c>
       <c r="D22" s="75" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E22" s="75" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F22" s="87" t="s">
         <v>14</v>
@@ -20073,15 +20092,15 @@
       <c r="GO22" s="51"/>
       <c r="GP22" s="51"/>
     </row>
-    <row r="23" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A23" s="101"/>
+    <row r="23" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="132"/>
       <c r="B23" s="147"/>
       <c r="C23" s="147"/>
       <c r="D23" s="75" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E23" s="75" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F23" s="87" t="s">
         <v>14</v>
@@ -20281,15 +20300,15 @@
       <c r="GO23" s="34"/>
       <c r="GP23" s="34"/>
     </row>
-    <row r="24" spans="1:198" s="33" customFormat="1" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A24" s="101"/>
+    <row r="24" spans="1:198" s="33" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="132"/>
       <c r="B24" s="147"/>
       <c r="C24" s="147"/>
       <c r="D24" s="75" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E24" s="75" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F24" s="87" t="s">
         <v>14</v>
@@ -20489,15 +20508,15 @@
       <c r="GO24" s="34"/>
       <c r="GP24" s="34"/>
     </row>
-    <row r="25" spans="1:198" s="52" customFormat="1" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A25" s="101"/>
+    <row r="25" spans="1:198" s="52" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="132"/>
       <c r="B25" s="147"/>
       <c r="C25" s="147"/>
       <c r="D25" s="75" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E25" s="75" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F25" s="87" t="s">
         <v>14</v>
@@ -20697,15 +20716,15 @@
       <c r="GO25" s="51"/>
       <c r="GP25" s="51"/>
     </row>
-    <row r="26" spans="1:198" s="33" customFormat="1" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A26" s="101"/>
+    <row r="26" spans="1:198" s="33" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="132"/>
       <c r="B26" s="147"/>
       <c r="C26" s="147"/>
       <c r="D26" s="75" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E26" s="75" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F26" s="87" t="s">
         <v>14</v>
@@ -20905,15 +20924,15 @@
       <c r="GO26" s="34"/>
       <c r="GP26" s="34"/>
     </row>
-    <row r="27" spans="1:198" s="52" customFormat="1" ht="41.25" customHeight="1" thickBot="1">
-      <c r="A27" s="101"/>
+    <row r="27" spans="1:198" s="52" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="132"/>
       <c r="B27" s="147"/>
       <c r="C27" s="147"/>
       <c r="D27" s="75" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E27" s="75" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F27" s="87" t="s">
         <v>14</v>
@@ -21113,15 +21132,15 @@
       <c r="GO27" s="51"/>
       <c r="GP27" s="51"/>
     </row>
-    <row r="28" spans="1:198" s="33" customFormat="1" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A28" s="101"/>
+    <row r="28" spans="1:198" s="33" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="132"/>
       <c r="B28" s="147"/>
       <c r="C28" s="147"/>
       <c r="D28" s="75" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E28" s="75" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F28" s="87" t="s">
         <v>14</v>
@@ -21321,15 +21340,15 @@
       <c r="GO28" s="34"/>
       <c r="GP28" s="34"/>
     </row>
-    <row r="29" spans="1:198" s="52" customFormat="1" ht="41.25" customHeight="1" thickBot="1">
-      <c r="A29" s="102"/>
-      <c r="B29" s="135"/>
-      <c r="C29" s="135"/>
+    <row r="29" spans="1:198" s="52" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="133"/>
+      <c r="B29" s="139"/>
+      <c r="C29" s="139"/>
       <c r="D29" s="75" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E29" s="75" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F29" s="87" t="s">
         <v>14</v>
@@ -21529,7 +21548,7 @@
       <c r="GO29" s="51"/>
       <c r="GP29" s="51"/>
     </row>
-    <row r="30" spans="1:198" s="52" customFormat="1" ht="13.5" thickBot="1">
+    <row r="30" spans="1:198" s="52" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
@@ -21729,21 +21748,21 @@
       <c r="GO30" s="51"/>
       <c r="GP30" s="51"/>
     </row>
-    <row r="31" spans="1:198" s="52" customFormat="1" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A31" s="100">
+    <row r="31" spans="1:198" s="52" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="131">
         <v>41</v>
       </c>
-      <c r="B31" s="134" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" s="134" t="s">
-        <v>110</v>
+      <c r="B31" s="138" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="138" t="s">
+        <v>104</v>
       </c>
       <c r="D31" s="75" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E31" s="75" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F31" s="87" t="s">
         <v>14</v>
@@ -21943,15 +21962,15 @@
       <c r="GO31" s="51"/>
       <c r="GP31" s="51"/>
     </row>
-    <row r="32" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A32" s="101"/>
+    <row r="32" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="132"/>
       <c r="B32" s="147"/>
       <c r="C32" s="147"/>
       <c r="D32" s="75" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E32" s="75" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F32" s="87" t="s">
         <v>14</v>
@@ -22151,15 +22170,15 @@
       <c r="GO32" s="34"/>
       <c r="GP32" s="34"/>
     </row>
-    <row r="33" spans="1:198" s="33" customFormat="1" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A33" s="101"/>
+    <row r="33" spans="1:198" s="33" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="132"/>
       <c r="B33" s="147"/>
       <c r="C33" s="147"/>
       <c r="D33" s="75" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E33" s="75" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F33" s="87" t="s">
         <v>14</v>
@@ -22359,15 +22378,15 @@
       <c r="GO33" s="34"/>
       <c r="GP33" s="34"/>
     </row>
-    <row r="34" spans="1:198" s="52" customFormat="1" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A34" s="101"/>
+    <row r="34" spans="1:198" s="52" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="132"/>
       <c r="B34" s="147"/>
       <c r="C34" s="147"/>
       <c r="D34" s="75" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E34" s="75" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F34" s="87" t="s">
         <v>14</v>
@@ -22567,15 +22586,15 @@
       <c r="GO34" s="51"/>
       <c r="GP34" s="51"/>
     </row>
-    <row r="35" spans="1:198" s="33" customFormat="1" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A35" s="101"/>
+    <row r="35" spans="1:198" s="33" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="132"/>
       <c r="B35" s="147"/>
       <c r="C35" s="147"/>
       <c r="D35" s="75" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E35" s="75" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F35" s="87" t="s">
         <v>14</v>
@@ -22775,15 +22794,15 @@
       <c r="GO35" s="34"/>
       <c r="GP35" s="34"/>
     </row>
-    <row r="36" spans="1:198" s="52" customFormat="1" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A36" s="101"/>
+    <row r="36" spans="1:198" s="52" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="132"/>
       <c r="B36" s="147"/>
       <c r="C36" s="147"/>
       <c r="D36" s="75" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E36" s="75" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F36" s="87" t="s">
         <v>14</v>
@@ -22983,15 +23002,15 @@
       <c r="GO36" s="51"/>
       <c r="GP36" s="51"/>
     </row>
-    <row r="37" spans="1:198" s="33" customFormat="1" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A37" s="101"/>
+    <row r="37" spans="1:198" s="33" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="132"/>
       <c r="B37" s="147"/>
       <c r="C37" s="147"/>
       <c r="D37" s="75" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E37" s="75" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F37" s="87" t="s">
         <v>14</v>
@@ -23191,15 +23210,15 @@
       <c r="GO37" s="34"/>
       <c r="GP37" s="34"/>
     </row>
-    <row r="38" spans="1:198" s="52" customFormat="1" ht="41.25" customHeight="1" thickBot="1">
-      <c r="A38" s="101"/>
+    <row r="38" spans="1:198" s="52" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="132"/>
       <c r="B38" s="147"/>
       <c r="C38" s="147"/>
       <c r="D38" s="75" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E38" s="75" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F38" s="87" t="s">
         <v>14</v>
@@ -23399,15 +23418,15 @@
       <c r="GO38" s="51"/>
       <c r="GP38" s="51"/>
     </row>
-    <row r="39" spans="1:198" s="33" customFormat="1" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A39" s="101"/>
+    <row r="39" spans="1:198" s="33" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="132"/>
       <c r="B39" s="147"/>
       <c r="C39" s="147"/>
       <c r="D39" s="75" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E39" s="75" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F39" s="87" t="s">
         <v>14</v>
@@ -23607,15 +23626,15 @@
       <c r="GO39" s="34"/>
       <c r="GP39" s="34"/>
     </row>
-    <row r="40" spans="1:198" s="52" customFormat="1" ht="41.25" customHeight="1" thickBot="1">
-      <c r="A40" s="102"/>
-      <c r="B40" s="135"/>
-      <c r="C40" s="135"/>
+    <row r="40" spans="1:198" s="52" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="133"/>
+      <c r="B40" s="139"/>
+      <c r="C40" s="139"/>
       <c r="D40" s="75" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E40" s="75" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F40" s="87" t="s">
         <v>14</v>
@@ -23815,7 +23834,7 @@
       <c r="GO40" s="51"/>
       <c r="GP40" s="51"/>
     </row>
-    <row r="41" spans="1:198" s="52" customFormat="1" ht="13.5" thickBot="1">
+    <row r="41" spans="1:198" s="52" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="31"/>
       <c r="B41" s="32"/>
       <c r="C41" s="32"/>
@@ -24015,21 +24034,21 @@
       <c r="GO41" s="51"/>
       <c r="GP41" s="51"/>
     </row>
-    <row r="42" spans="1:198" s="41" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A42" s="100">
+    <row r="42" spans="1:198" s="41" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="131">
         <v>42</v>
       </c>
-      <c r="B42" s="134" t="s">
-        <v>111</v>
-      </c>
-      <c r="C42" s="134" t="s">
-        <v>107</v>
+      <c r="B42" s="138" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="138" t="s">
+        <v>101</v>
       </c>
       <c r="D42" s="75" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E42" s="75" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F42" s="87" t="s">
         <v>14</v>
@@ -24229,15 +24248,15 @@
       <c r="GO42" s="40"/>
       <c r="GP42" s="40"/>
     </row>
-    <row r="43" spans="1:198" s="41" customFormat="1" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A43" s="101"/>
+    <row r="43" spans="1:198" s="41" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="132"/>
       <c r="B43" s="147"/>
       <c r="C43" s="147"/>
       <c r="D43" s="75" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E43" s="75" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F43" s="87" t="s">
         <v>14</v>
@@ -24437,15 +24456,15 @@
       <c r="GO43" s="40"/>
       <c r="GP43" s="40"/>
     </row>
-    <row r="44" spans="1:198" s="52" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A44" s="101"/>
+    <row r="44" spans="1:198" s="52" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="132"/>
       <c r="B44" s="147"/>
       <c r="C44" s="147"/>
       <c r="D44" s="75" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E44" s="75" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F44" s="87" t="s">
         <v>14</v>
@@ -24645,15 +24664,15 @@
       <c r="GO44" s="51"/>
       <c r="GP44" s="51"/>
     </row>
-    <row r="45" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A45" s="101"/>
+    <row r="45" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="132"/>
       <c r="B45" s="147"/>
       <c r="C45" s="147"/>
       <c r="D45" s="75" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E45" s="75" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F45" s="87" t="s">
         <v>14</v>
@@ -24853,15 +24872,15 @@
       <c r="GO45" s="34"/>
       <c r="GP45" s="34"/>
     </row>
-    <row r="46" spans="1:198" s="41" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A46" s="101"/>
+    <row r="46" spans="1:198" s="41" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="132"/>
       <c r="B46" s="147"/>
       <c r="C46" s="147"/>
       <c r="D46" s="75" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E46" s="75" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F46" s="87" t="s">
         <v>14</v>
@@ -25061,15 +25080,15 @@
       <c r="GO46" s="40"/>
       <c r="GP46" s="40"/>
     </row>
-    <row r="47" spans="1:198" s="41" customFormat="1" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A47" s="101"/>
+    <row r="47" spans="1:198" s="41" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="132"/>
       <c r="B47" s="147"/>
       <c r="C47" s="147"/>
       <c r="D47" s="75" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E47" s="75" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F47" s="87" t="s">
         <v>14</v>
@@ -25269,15 +25288,15 @@
       <c r="GO47" s="40"/>
       <c r="GP47" s="40"/>
     </row>
-    <row r="48" spans="1:198" s="52" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A48" s="101"/>
+    <row r="48" spans="1:198" s="52" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="132"/>
       <c r="B48" s="147"/>
       <c r="C48" s="147"/>
       <c r="D48" s="75" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E48" s="75" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F48" s="87" t="s">
         <v>14</v>
@@ -25477,15 +25496,15 @@
       <c r="GO48" s="51"/>
       <c r="GP48" s="51"/>
     </row>
-    <row r="49" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A49" s="102"/>
-      <c r="B49" s="135"/>
-      <c r="C49" s="135"/>
+    <row r="49" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="133"/>
+      <c r="B49" s="139"/>
+      <c r="C49" s="139"/>
       <c r="D49" s="75" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E49" s="75" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F49" s="87" t="s">
         <v>14</v>
@@ -25685,7 +25704,7 @@
       <c r="GO49" s="34"/>
       <c r="GP49" s="34"/>
     </row>
-    <row r="50" spans="1:198" s="52" customFormat="1" ht="13.5" thickBot="1">
+    <row r="50" spans="1:198" s="52" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="31"/>
       <c r="B50" s="32"/>
       <c r="C50" s="32"/>
@@ -25885,21 +25904,21 @@
       <c r="GO50" s="51"/>
       <c r="GP50" s="51"/>
     </row>
-    <row r="51" spans="1:198" s="52" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A51" s="100">
+    <row r="51" spans="1:198" s="52" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="131">
         <v>43</v>
       </c>
-      <c r="B51" s="134" t="s">
-        <v>113</v>
-      </c>
-      <c r="C51" s="134" t="s">
-        <v>108</v>
+      <c r="B51" s="138" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="138" t="s">
+        <v>102</v>
       </c>
       <c r="D51" s="75" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E51" s="75" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F51" s="87" t="s">
         <v>14</v>
@@ -26099,15 +26118,15 @@
       <c r="GO51" s="51"/>
       <c r="GP51" s="51"/>
     </row>
-    <row r="52" spans="1:198" s="33" customFormat="1" ht="41.25" customHeight="1" thickBot="1">
-      <c r="A52" s="101"/>
+    <row r="52" spans="1:198" s="33" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="132"/>
       <c r="B52" s="147"/>
       <c r="C52" s="147"/>
       <c r="D52" s="75" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E52" s="75" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F52" s="87" t="s">
         <v>14</v>
@@ -26307,15 +26326,15 @@
       <c r="GO52" s="34"/>
       <c r="GP52" s="34"/>
     </row>
-    <row r="53" spans="1:198" s="33" customFormat="1" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A53" s="101"/>
+    <row r="53" spans="1:198" s="33" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="132"/>
       <c r="B53" s="147"/>
       <c r="C53" s="147"/>
       <c r="D53" s="75" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E53" s="75" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F53" s="87" t="s">
         <v>14</v>
@@ -26515,15 +26534,15 @@
       <c r="GO53" s="34"/>
       <c r="GP53" s="34"/>
     </row>
-    <row r="54" spans="1:198" s="52" customFormat="1" ht="41.25" customHeight="1" thickBot="1">
-      <c r="A54" s="101"/>
+    <row r="54" spans="1:198" s="52" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="132"/>
       <c r="B54" s="147"/>
       <c r="C54" s="147"/>
       <c r="D54" s="75" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E54" s="75" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F54" s="87" t="s">
         <v>14</v>
@@ -26723,15 +26742,15 @@
       <c r="GO54" s="51"/>
       <c r="GP54" s="51"/>
     </row>
-    <row r="55" spans="1:198" s="33" customFormat="1" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A55" s="101"/>
+    <row r="55" spans="1:198" s="33" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="132"/>
       <c r="B55" s="147"/>
       <c r="C55" s="147"/>
       <c r="D55" s="75" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E55" s="75" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F55" s="87" t="s">
         <v>14</v>
@@ -26931,15 +26950,15 @@
       <c r="GO55" s="34"/>
       <c r="GP55" s="34"/>
     </row>
-    <row r="56" spans="1:198" s="52" customFormat="1" ht="41.25" customHeight="1" thickBot="1">
-      <c r="A56" s="101"/>
+    <row r="56" spans="1:198" s="52" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="132"/>
       <c r="B56" s="147"/>
       <c r="C56" s="147"/>
       <c r="D56" s="75" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E56" s="75" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F56" s="87" t="s">
         <v>14</v>
@@ -27139,15 +27158,15 @@
       <c r="GO56" s="51"/>
       <c r="GP56" s="51"/>
     </row>
-    <row r="57" spans="1:198" s="52" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A57" s="101"/>
+    <row r="57" spans="1:198" s="52" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="132"/>
       <c r="B57" s="147"/>
       <c r="C57" s="147"/>
       <c r="D57" s="75" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E57" s="75" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F57" s="87" t="s">
         <v>14</v>
@@ -27347,15 +27366,15 @@
       <c r="GO57" s="51"/>
       <c r="GP57" s="51"/>
     </row>
-    <row r="58" spans="1:198" s="33" customFormat="1" ht="41.25" customHeight="1" thickBot="1">
-      <c r="A58" s="101"/>
+    <row r="58" spans="1:198" s="33" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="132"/>
       <c r="B58" s="147"/>
       <c r="C58" s="147"/>
       <c r="D58" s="75" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E58" s="75" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F58" s="87" t="s">
         <v>14</v>
@@ -27555,15 +27574,15 @@
       <c r="GO58" s="34"/>
       <c r="GP58" s="34"/>
     </row>
-    <row r="59" spans="1:198" s="33" customFormat="1" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A59" s="101"/>
+    <row r="59" spans="1:198" s="33" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="132"/>
       <c r="B59" s="147"/>
       <c r="C59" s="147"/>
       <c r="D59" s="75" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E59" s="75" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F59" s="87" t="s">
         <v>14</v>
@@ -27763,15 +27782,15 @@
       <c r="GO59" s="34"/>
       <c r="GP59" s="34"/>
     </row>
-    <row r="60" spans="1:198" s="52" customFormat="1" ht="41.25" customHeight="1" thickBot="1">
-      <c r="A60" s="101"/>
+    <row r="60" spans="1:198" s="52" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="132"/>
       <c r="B60" s="147"/>
       <c r="C60" s="147"/>
       <c r="D60" s="75" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E60" s="75" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F60" s="87" t="s">
         <v>14</v>
@@ -27971,15 +27990,15 @@
       <c r="GO60" s="51"/>
       <c r="GP60" s="51"/>
     </row>
-    <row r="61" spans="1:198" s="33" customFormat="1" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A61" s="101"/>
+    <row r="61" spans="1:198" s="33" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="132"/>
       <c r="B61" s="147"/>
       <c r="C61" s="147"/>
       <c r="D61" s="75" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E61" s="75" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F61" s="87" t="s">
         <v>14</v>
@@ -28179,15 +28198,15 @@
       <c r="GO61" s="34"/>
       <c r="GP61" s="34"/>
     </row>
-    <row r="62" spans="1:198" s="52" customFormat="1" ht="41.25" customHeight="1" thickBot="1">
-      <c r="A62" s="101"/>
+    <row r="62" spans="1:198" s="52" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="132"/>
       <c r="B62" s="147"/>
       <c r="C62" s="147"/>
       <c r="D62" s="75" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E62" s="75" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F62" s="87" t="s">
         <v>14</v>
@@ -28387,15 +28406,15 @@
       <c r="GO62" s="51"/>
       <c r="GP62" s="51"/>
     </row>
-    <row r="63" spans="1:198" s="41" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A63" s="101"/>
+    <row r="63" spans="1:198" s="41" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="132"/>
       <c r="B63" s="147"/>
       <c r="C63" s="147"/>
       <c r="D63" s="75" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E63" s="75" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F63" s="87" t="s">
         <v>14</v>
@@ -28595,15 +28614,15 @@
       <c r="GO63" s="40"/>
       <c r="GP63" s="40"/>
     </row>
-    <row r="64" spans="1:198" s="41" customFormat="1" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A64" s="101"/>
+    <row r="64" spans="1:198" s="41" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="132"/>
       <c r="B64" s="147"/>
       <c r="C64" s="147"/>
       <c r="D64" s="75" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E64" s="75" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F64" s="87" t="s">
         <v>14</v>
@@ -28803,15 +28822,15 @@
       <c r="GO64" s="40"/>
       <c r="GP64" s="40"/>
     </row>
-    <row r="65" spans="1:198" s="52" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A65" s="101"/>
+    <row r="65" spans="1:198" s="52" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="132"/>
       <c r="B65" s="147"/>
       <c r="C65" s="147"/>
       <c r="D65" s="75" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E65" s="75" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F65" s="87" t="s">
         <v>14</v>
@@ -29011,15 +29030,15 @@
       <c r="GO65" s="51"/>
       <c r="GP65" s="51"/>
     </row>
-    <row r="66" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A66" s="102"/>
-      <c r="B66" s="135"/>
-      <c r="C66" s="135"/>
+    <row r="66" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="133"/>
+      <c r="B66" s="139"/>
+      <c r="C66" s="139"/>
       <c r="D66" s="75" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E66" s="75" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F66" s="87" t="s">
         <v>14</v>
@@ -29219,7 +29238,7 @@
       <c r="GO66" s="34"/>
       <c r="GP66" s="34"/>
     </row>
-    <row r="67" spans="1:198" s="52" customFormat="1" ht="13.5" thickBot="1">
+    <row r="67" spans="1:198" s="52" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="31"/>
       <c r="B67" s="32"/>
       <c r="C67" s="32"/>
@@ -29419,21 +29438,21 @@
       <c r="GO67" s="51"/>
       <c r="GP67" s="51"/>
     </row>
-    <row r="68" spans="1:198" s="41" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A68" s="100">
+    <row r="68" spans="1:198" s="41" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="131">
         <v>44</v>
       </c>
-      <c r="B68" s="134" t="s">
-        <v>117</v>
-      </c>
-      <c r="C68" s="134" t="s">
-        <v>107</v>
+      <c r="B68" s="138" t="s">
+        <v>111</v>
+      </c>
+      <c r="C68" s="138" t="s">
+        <v>101</v>
       </c>
       <c r="D68" s="75" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E68" s="75" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F68" s="87" t="s">
         <v>14</v>
@@ -29633,15 +29652,15 @@
       <c r="GO68" s="40"/>
       <c r="GP68" s="40"/>
     </row>
-    <row r="69" spans="1:198" s="41" customFormat="1" ht="53.25" customHeight="1" thickBot="1">
-      <c r="A69" s="101"/>
+    <row r="69" spans="1:198" s="41" customFormat="1" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="132"/>
       <c r="B69" s="147"/>
       <c r="C69" s="147"/>
       <c r="D69" s="75" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E69" s="75" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F69" s="87" t="s">
         <v>14</v>
@@ -29841,7 +29860,7 @@
       <c r="GO69" s="40"/>
       <c r="GP69" s="40"/>
     </row>
-    <row r="70" spans="1:198" s="52" customFormat="1" ht="13.5" thickBot="1">
+    <row r="70" spans="1:198" s="52" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="31"/>
       <c r="B70" s="32"/>
       <c r="C70" s="32"/>
@@ -30041,27 +30060,27 @@
       <c r="GO70" s="51"/>
       <c r="GP70" s="51"/>
     </row>
-    <row r="71" spans="1:198" s="41" customFormat="1" ht="68.25" customHeight="1" thickBot="1">
+    <row r="71" spans="1:198" s="41" customFormat="1" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="81">
         <v>45</v>
       </c>
       <c r="B71" s="82" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C71" s="82" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D71" s="75" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E71" s="75" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F71" s="87" t="s">
         <v>14</v>
       </c>
       <c r="G71" s="83" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H71" s="40"/>
       <c r="I71" s="40"/>
@@ -30255,7 +30274,7 @@
       <c r="GO71" s="40"/>
       <c r="GP71" s="40"/>
     </row>
-    <row r="72" spans="1:198" s="52" customFormat="1" ht="13.5" thickBot="1">
+    <row r="72" spans="1:198" s="52" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="31"/>
       <c r="B72" s="32"/>
       <c r="C72" s="32"/>
@@ -30455,21 +30474,21 @@
       <c r="GO72" s="51"/>
       <c r="GP72" s="51"/>
     </row>
-    <row r="73" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A73" s="143">
+    <row r="73" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="134">
         <v>46</v>
       </c>
-      <c r="B73" s="103" t="s">
-        <v>124</v>
-      </c>
-      <c r="C73" s="134" t="s">
-        <v>125</v>
-      </c>
-      <c r="D73" s="103" t="s">
-        <v>134</v>
-      </c>
-      <c r="E73" s="103" t="s">
-        <v>81</v>
+      <c r="B73" s="107" t="s">
+        <v>118</v>
+      </c>
+      <c r="C73" s="138" t="s">
+        <v>119</v>
+      </c>
+      <c r="D73" s="107" t="s">
+        <v>128</v>
+      </c>
+      <c r="E73" s="107" t="s">
+        <v>75</v>
       </c>
       <c r="F73" s="87" t="s">
         <v>14</v>
@@ -30669,12 +30688,12 @@
       <c r="GO73" s="34"/>
       <c r="GP73" s="34"/>
     </row>
-    <row r="74" spans="1:198" s="33" customFormat="1" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A74" s="144"/>
-      <c r="B74" s="105"/>
+    <row r="74" spans="1:198" s="33" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="135"/>
+      <c r="B74" s="130"/>
       <c r="C74" s="147"/>
-      <c r="D74" s="105"/>
-      <c r="E74" s="105"/>
+      <c r="D74" s="130"/>
+      <c r="E74" s="130"/>
       <c r="F74" s="88"/>
       <c r="G74" s="84"/>
       <c r="H74" s="34"/>
@@ -30869,7 +30888,7 @@
       <c r="GO74" s="34"/>
       <c r="GP74" s="34"/>
     </row>
-    <row r="75" spans="1:198" s="52" customFormat="1" ht="13.5" thickBot="1">
+    <row r="75" spans="1:198" s="52" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="54"/>
       <c r="B75" s="55"/>
       <c r="C75" s="55"/>
@@ -30976,21 +30995,21 @@
       <c r="CZ75" s="8"/>
       <c r="DA75" s="8"/>
     </row>
-    <row r="76" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A76" s="133">
+    <row r="76" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="106">
         <v>47</v>
       </c>
-      <c r="B76" s="103" t="s">
-        <v>82</v>
-      </c>
-      <c r="C76" s="134" t="s">
-        <v>125</v>
-      </c>
-      <c r="D76" s="103" t="s">
-        <v>135</v>
-      </c>
-      <c r="E76" s="103" t="s">
-        <v>83</v>
+      <c r="B76" s="107" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76" s="138" t="s">
+        <v>119</v>
+      </c>
+      <c r="D76" s="107" t="s">
+        <v>129</v>
+      </c>
+      <c r="E76" s="107" t="s">
+        <v>77</v>
       </c>
       <c r="F76" s="87" t="s">
         <v>14</v>
@@ -31190,12 +31209,12 @@
       <c r="GO76" s="34"/>
       <c r="GP76" s="34"/>
     </row>
-    <row r="77" spans="1:198" s="33" customFormat="1" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A77" s="106"/>
-      <c r="B77" s="104"/>
+    <row r="77" spans="1:198" s="33" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="100"/>
+      <c r="B77" s="101"/>
       <c r="C77" s="147"/>
-      <c r="D77" s="104"/>
-      <c r="E77" s="104"/>
+      <c r="D77" s="101"/>
+      <c r="E77" s="101"/>
       <c r="F77" s="88"/>
       <c r="G77" s="84"/>
       <c r="H77" s="34"/>
@@ -31390,7 +31409,7 @@
       <c r="GO77" s="34"/>
       <c r="GP77" s="34"/>
     </row>
-    <row r="78" spans="1:198" s="52" customFormat="1" ht="13.5" thickBot="1">
+    <row r="78" spans="1:198" s="52" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="54"/>
       <c r="B78" s="55"/>
       <c r="C78" s="55"/>
@@ -31497,21 +31516,21 @@
       <c r="CZ78" s="8"/>
       <c r="DA78" s="8"/>
     </row>
-    <row r="79" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A79" s="133">
+    <row r="79" spans="1:198" s="33" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="106">
         <v>48</v>
       </c>
-      <c r="B79" s="103" t="s">
-        <v>126</v>
-      </c>
-      <c r="C79" s="134" t="s">
-        <v>125</v>
-      </c>
-      <c r="D79" s="103" t="s">
-        <v>136</v>
-      </c>
-      <c r="E79" s="103" t="s">
-        <v>127</v>
+      <c r="B79" s="107" t="s">
+        <v>120</v>
+      </c>
+      <c r="C79" s="138" t="s">
+        <v>119</v>
+      </c>
+      <c r="D79" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="E79" s="107" t="s">
+        <v>121</v>
       </c>
       <c r="F79" s="87" t="s">
         <v>14</v>
@@ -31711,12 +31730,12 @@
       <c r="GO79" s="34"/>
       <c r="GP79" s="34"/>
     </row>
-    <row r="80" spans="1:198" s="33" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A80" s="106"/>
-      <c r="B80" s="104"/>
+    <row r="80" spans="1:198" s="33" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="100"/>
+      <c r="B80" s="101"/>
       <c r="C80" s="147"/>
-      <c r="D80" s="104"/>
-      <c r="E80" s="104"/>
+      <c r="D80" s="101"/>
+      <c r="E80" s="101"/>
       <c r="F80" s="93"/>
       <c r="G80" s="86"/>
       <c r="H80" s="34"/>
@@ -31913,26 +31932,11 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="C22:C29"/>
-    <mergeCell ref="B22:B29"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="C51:C66"/>
-    <mergeCell ref="B51:B66"/>
-    <mergeCell ref="A51:A66"/>
-    <mergeCell ref="C42:C49"/>
-    <mergeCell ref="B42:B49"/>
-    <mergeCell ref="A42:A49"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:E4"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="A73:A74"/>
@@ -31949,26 +31953,58 @@
     <mergeCell ref="B31:B40"/>
     <mergeCell ref="A31:A40"/>
     <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="C22:C29"/>
+    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C51:C66"/>
+    <mergeCell ref="B51:B66"/>
+    <mergeCell ref="A51:A66"/>
+    <mergeCell ref="C42:C49"/>
+    <mergeCell ref="B42:B49"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C8:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="34.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>